--- a/source_analyses/uk/2012/7_services/7_services_source_analysis.xlsx
+++ b/source_analyses/uk/2012/7_services/7_services_source_analysis.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15400" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16080" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="final_demand" sheetId="1" r:id="rId1"/>
-    <sheet name="lighting" sheetId="2" r:id="rId2"/>
-    <sheet name="Odyssee" sheetId="4" r:id="rId3"/>
+    <sheet name="Final demand" sheetId="1" r:id="rId1"/>
+    <sheet name="LIghting" sheetId="2" r:id="rId2"/>
+    <sheet name="Electricity" sheetId="5" r:id="rId3"/>
+    <sheet name="Fuel aggregation" sheetId="6" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="Final_demand_residences">'[1]Fuel aggregation'!$L$11</definedName>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="153">
   <si>
     <r>
       <t>Table 5.09: Final energy consumption in the service sector</t>
@@ -424,219 +426,172 @@
     <t>diff</t>
   </si>
   <si>
-    <t>Countries :</t>
-  </si>
-  <si>
-    <t>United Kingdom (GB)</t>
-  </si>
-  <si>
-    <t>Mtoe to TJ conversion</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Coal consumption of tertiary</t>
-  </si>
-  <si>
-    <t>Mtoe</t>
-  </si>
-  <si>
-    <t>TJ</t>
-  </si>
-  <si>
-    <t>Oil consumption of tertiary</t>
-  </si>
-  <si>
-    <t>Gas consumption of tertiary</t>
-  </si>
-  <si>
-    <t>Heat consumption of tertiary</t>
-  </si>
-  <si>
-    <t>Wood consumption of tertiary</t>
-  </si>
-  <si>
-    <t>Electricity consumption of tertiary</t>
-  </si>
-  <si>
-    <t>Final consumption of tertiary</t>
-  </si>
-  <si>
-    <t>Total consumption of tertiary (with climatic corrections)</t>
-  </si>
-  <si>
-    <t>Electricity consumption of hôtels, restaurants</t>
-  </si>
-  <si>
-    <t>Final consumption of hôtels, restaurants</t>
-  </si>
-  <si>
-    <t>Electricity consumption of health and social action sector</t>
-  </si>
-  <si>
-    <t>Final consumption of health and social action sector</t>
-  </si>
-  <si>
-    <t>Electricity consumption of education, research</t>
-  </si>
-  <si>
-    <t>Final consumption of education, research</t>
-  </si>
-  <si>
-    <t>Electricity consumption of trade (wholesale and retail)</t>
-  </si>
-  <si>
-    <t>Final consumption of trade (wholesale and retail)</t>
-  </si>
-  <si>
-    <t>Electricity consumption of public and private offices</t>
-  </si>
-  <si>
-    <t>Final consumption of public and private offices</t>
-  </si>
-  <si>
-    <t>Electricity consumption of administrations</t>
-  </si>
-  <si>
-    <t>Final consumption of administrations</t>
-  </si>
-  <si>
-    <t>Electricity consumption of offices</t>
-  </si>
-  <si>
-    <t>Final consumption of offices</t>
-  </si>
-  <si>
-    <t>Coal consumption of tertiary for space heating</t>
-  </si>
-  <si>
-    <t>Oil consumption of tertiary for space heating</t>
-  </si>
-  <si>
-    <t>Gas consumption of tertiary for space heating</t>
-  </si>
-  <si>
-    <t>Heat consumption of tertiary for space heating</t>
-  </si>
-  <si>
-    <t>n.a.</t>
-  </si>
-  <si>
-    <t>Electricity consumption of tertiary for space heating</t>
-  </si>
-  <si>
-    <t>Total consumption of tertiary for space heating</t>
-  </si>
-  <si>
-    <t>Total consumption of tertiary for space heating (with climatic corrections)</t>
-  </si>
-  <si>
-    <t>Final consumption of agriculture</t>
-  </si>
-  <si>
-    <t>Coal consumption of agriculture</t>
-  </si>
-  <si>
-    <t>Oil products consumption of agriculture</t>
-  </si>
-  <si>
-    <t>Gas consumption of agriculture</t>
-  </si>
-  <si>
-    <t>Heat consumption of agriculture</t>
-  </si>
-  <si>
-    <t>Wood consumption of agriculture</t>
-  </si>
-  <si>
-    <t>Electricity consumption of agriculture</t>
-  </si>
-  <si>
-    <t>Value added of tertiary (at exchange rate)</t>
-  </si>
-  <si>
-    <t>M€2005</t>
-  </si>
-  <si>
-    <t>Value added of hôtels, restaurants (at exchange rate)</t>
-  </si>
-  <si>
-    <t>Value added of health sector (at exchange rate)</t>
-  </si>
-  <si>
-    <t>Value added of education (at exchange rate)</t>
-  </si>
-  <si>
-    <t>Value added of public and private offices (at exchange rate)</t>
-  </si>
-  <si>
-    <t>Value added of public offices, administrations (at exchange rate)</t>
-  </si>
-  <si>
-    <t>Value added of private offices (at exchange rate)</t>
-  </si>
-  <si>
-    <t>Value added of trade (at exchange rate)</t>
-  </si>
-  <si>
-    <t>Floor area of tertiary</t>
-  </si>
-  <si>
-    <t>Floor area of hôtels, restaurants</t>
-  </si>
-  <si>
-    <t>Floor area of health</t>
-  </si>
-  <si>
-    <t>Floor area of education research</t>
-  </si>
-  <si>
-    <t>Floor area of public and private offices</t>
-  </si>
-  <si>
-    <t>Floor area of public offices and administrations</t>
-  </si>
-  <si>
-    <t>Floor area of private offices</t>
-  </si>
-  <si>
-    <t>Floor area of trade</t>
-  </si>
-  <si>
-    <t>Employment of tertiary</t>
-  </si>
-  <si>
-    <t>Employment of hôtels, restaurants sector</t>
-  </si>
-  <si>
-    <t>Employment of health sector</t>
-  </si>
-  <si>
-    <t>Employment education sector</t>
-  </si>
-  <si>
-    <t>Employment of public and private offices</t>
-  </si>
-  <si>
-    <t>Employment of public offices, administrations</t>
-  </si>
-  <si>
-    <t>Employment of private offices</t>
-  </si>
-  <si>
-    <t>Employment of trade sector</t>
+    <t xml:space="preserve">How much electricity is used in which services application? </t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>Electricity breakdown</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Appliances</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Space heating and hot water</t>
+  </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>Electrical appliances</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Misc. building technologies</t>
+  </si>
+  <si>
+    <t>Hot water</t>
+  </si>
+  <si>
+    <t>Ventilation and air conditioning</t>
+  </si>
+  <si>
+    <t>Refrigerating</t>
+  </si>
+  <si>
+    <t>Electric heating</t>
+  </si>
+  <si>
+    <t>Lighting street</t>
+  </si>
+  <si>
+    <t>ICT datacenters</t>
+  </si>
+  <si>
+    <t>Circulation pumps and other heating auxilaries</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>ICT office</t>
+  </si>
+  <si>
+    <t>Elevators</t>
+  </si>
+  <si>
+    <t>Laundry</t>
+  </si>
+  <si>
+    <t>Heat pumps</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>[1] Fleiter et al. (2010) Electricity demand in the European services sector: A detailed bottom-up estimate by sector and by end-use</t>
+  </si>
+  <si>
+    <t>Deriving Final demand per application and space heating split</t>
+  </si>
+  <si>
+    <t>Table 1: Fuel aggregation, taken from the Services Analysis with EU 2011 data</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Woodpellets</t>
+  </si>
+  <si>
+    <t>Solar thermal</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Final demand per energy carrier (TJ)</t>
+  </si>
+  <si>
+    <t>Table 2: How much percent of the carrier is used in which application?</t>
+  </si>
+  <si>
+    <t>Space heating / hot water</t>
+  </si>
+  <si>
+    <t>Table 3: Final demand per application</t>
+  </si>
+  <si>
+    <t>Table 4: Technology split in space heating</t>
+  </si>
+  <si>
+    <t>Final energy use (TJ)</t>
+  </si>
+  <si>
+    <t>Conversion efficiency (%)</t>
+  </si>
+  <si>
+    <t>Useful energy demand (TJ)</t>
+  </si>
+  <si>
+    <t>Share of useful demand (%)</t>
+  </si>
+  <si>
+    <t>Share for dashboard (%)</t>
+  </si>
+  <si>
+    <t>Solar thermal panels</t>
+  </si>
+  <si>
+    <t>Biomass fired heaters</t>
+  </si>
+  <si>
+    <t>District heating</t>
+  </si>
+  <si>
+    <t>Electric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="[&gt;=0.05]#,##0;[&lt;0.05]&quot;-&quot;;General"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -751,22 +706,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFCC3366"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF006699"/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -906,7 +864,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -952,15 +910,6 @@
     <xf numFmtId="4" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -975,20 +924,8 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1024,13 +961,106 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="24"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="24" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="24" applyFont="1"/>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="24" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="24" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Comma 2 2" xfId="7"/>
@@ -1059,9 +1089,66 @@
     <cellStyle name="Percent 2" xfId="6"/>
     <cellStyle name="Percent 3" xfId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="292100" y="6032500"/>
+          <a:ext cx="5778500" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1134,6 +1221,36 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Electricity"/>
+      <sheetName val="Fuel aggregation"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="22">
+          <cell r="K22">
+            <v>0.23018867924528302</v>
+          </cell>
+          <cell r="L22">
+            <v>3.0188679245283019E-2</v>
+          </cell>
+          <cell r="M22">
+            <v>0.30188679245283018</v>
+          </cell>
+          <cell r="N22">
+            <v>0.43773584905660379</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1463,7 +1580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -1959,31 +2076,31 @@
         <v>28</v>
       </c>
       <c r="B25" s="26">
-        <f>B14/$I$14</f>
+        <f t="shared" ref="B25:H25" si="0">B14/$I$14</f>
         <v>0.10107141342489169</v>
       </c>
       <c r="C25" s="26">
-        <f>C14/$I$14</f>
+        <f t="shared" si="0"/>
         <v>2.7907183134003262E-2</v>
       </c>
       <c r="D25" s="26">
-        <f>D14/$I$14</f>
+        <f t="shared" si="0"/>
         <v>4.2186173641658407E-2</v>
       </c>
       <c r="E25" s="26">
-        <f>E14/$I$14</f>
+        <f t="shared" si="0"/>
         <v>9.1618210567694675E-2</v>
       </c>
       <c r="F25" s="26">
-        <f>F14/$I$14</f>
+        <f t="shared" si="0"/>
         <v>0.48040477929523051</v>
       </c>
       <c r="G25" s="26">
-        <f>G14/$I$14</f>
+        <f t="shared" si="0"/>
         <v>0.18797555935963189</v>
       </c>
       <c r="H25" s="26">
-        <f>H14/$I$14</f>
+        <f t="shared" si="0"/>
         <v>6.8836680576889464E-2</v>
       </c>
       <c r="I25" s="26"/>
@@ -2000,27 +2117,27 @@
         <v>68090.292970005627</v>
       </c>
       <c r="C26" s="26">
-        <f t="shared" ref="C26:H26" si="0">C25*$J$25</f>
+        <f t="shared" ref="C26:H26" si="1">C25*$J$25</f>
         <v>18800.650066835831</v>
       </c>
       <c r="D26" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28420.191478559296</v>
       </c>
       <c r="E26" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61721.812207344039</v>
       </c>
       <c r="F26" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>323641.48336276412</v>
       </c>
       <c r="G26" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126636.31064692154</v>
       </c>
       <c r="H26" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46374.237667569483</v>
       </c>
       <c r="I26" s="26"/>
@@ -2053,12 +2170,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:87">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="46" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:87">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="47" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2067,756 +2184,756 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:87" s="34" customFormat="1" ht="13" thickTop="1">
+    <row r="4" spans="1:87" s="31" customFormat="1" ht="13" thickTop="1">
       <c r="A4" s="28"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="28"/>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="28"/>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
       <c r="R4" s="28"/>
-      <c r="S4" s="31" t="s">
+      <c r="S4" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
       <c r="AB4" s="28"/>
-      <c r="AC4" s="31" t="s">
+      <c r="AC4" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="31" t="s">
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="32" t="s">
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="29" t="s">
         <v>52</v>
       </c>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="31" t="s">
+      <c r="AU4" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31"/>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
-      <c r="BH4" s="31"/>
-      <c r="BI4" s="31"/>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31"/>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="50"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="50"/>
+      <c r="BB4" s="50"/>
+      <c r="BC4" s="50"/>
+      <c r="BD4" s="50"/>
+      <c r="BE4" s="50"/>
+      <c r="BF4" s="50"/>
+      <c r="BG4" s="50"/>
+      <c r="BH4" s="50"/>
+      <c r="BI4" s="50"/>
+      <c r="BJ4" s="50"/>
+      <c r="BK4" s="50"/>
+      <c r="BL4" s="50"/>
+      <c r="BM4" s="50"/>
+      <c r="BN4" s="50"/>
+      <c r="BO4" s="50"/>
+      <c r="BP4" s="50"/>
+      <c r="BQ4" s="50"/>
+      <c r="BR4" s="50"/>
+      <c r="BS4" s="50"/>
+      <c r="BT4" s="50"/>
+      <c r="BU4" s="50"/>
       <c r="BV4" s="28"/>
-      <c r="BW4" s="31" t="s">
+      <c r="BW4" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="BX4" s="31"/>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31"/>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="33"/>
-      <c r="CG4" s="33" t="s">
+      <c r="BX4" s="50"/>
+      <c r="BY4" s="50"/>
+      <c r="BZ4" s="50"/>
+      <c r="CA4" s="50"/>
+      <c r="CB4" s="50"/>
+      <c r="CC4" s="50"/>
+      <c r="CD4" s="50"/>
+      <c r="CE4" s="50"/>
+      <c r="CF4" s="30"/>
+      <c r="CG4" s="30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:87" s="44" customFormat="1" ht="48">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36" t="s">
+    <row r="5" spans="1:87" s="37" customFormat="1" ht="48">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="37" t="s">
+      <c r="J5" s="33"/>
+      <c r="K5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="37" t="s">
+      <c r="Q5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="36"/>
-      <c r="S5" s="37" t="s">
+      <c r="R5" s="33"/>
+      <c r="S5" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="T5" s="37" t="s">
+      <c r="T5" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="U5" s="37" t="s">
+      <c r="U5" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="V5" s="37" t="s">
+      <c r="V5" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="W5" s="37" t="s">
+      <c r="W5" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="X5" s="37" t="s">
+      <c r="X5" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="Y5" s="37" t="s">
+      <c r="Y5" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="Z5" s="37" t="s">
+      <c r="Z5" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AA5" s="37" t="s">
+      <c r="AA5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="37" t="s">
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="AD5" s="37" t="s">
+      <c r="AD5" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="AE5" s="37" t="s">
+      <c r="AE5" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="AF5" s="37" t="s">
+      <c r="AF5" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="AG5" s="37" t="s">
+      <c r="AG5" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AH5" s="37" t="s">
+      <c r="AH5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="37" t="s">
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AK5" s="37" t="s">
+      <c r="AK5" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="AL5" s="37" t="s">
+      <c r="AL5" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AM5" s="37" t="s">
+      <c r="AM5" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="AN5" s="37" t="s">
+      <c r="AN5" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="AO5" s="37" t="s">
+      <c r="AO5" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AP5" s="37" t="s">
+      <c r="AP5" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="AQ5" s="37" t="s">
+      <c r="AQ5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="37" t="s">
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="38" t="s">
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="AV5" s="39"/>
-      <c r="AW5" s="39"/>
-      <c r="AX5" s="39"/>
-      <c r="AY5" s="40"/>
-      <c r="AZ5" s="41" t="s">
+      <c r="AV5" s="52"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="35"/>
+      <c r="AZ5" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="38" t="s">
+      <c r="BA5" s="54"/>
+      <c r="BB5" s="54"/>
+      <c r="BC5" s="54"/>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="BF5" s="39"/>
-      <c r="BG5" s="39"/>
-      <c r="BH5" s="39"/>
-      <c r="BI5" s="39"/>
-      <c r="BJ5" s="39"/>
-      <c r="BK5" s="40"/>
-      <c r="BL5" s="38" t="s">
+      <c r="BF5" s="52"/>
+      <c r="BG5" s="52"/>
+      <c r="BH5" s="52"/>
+      <c r="BI5" s="52"/>
+      <c r="BJ5" s="52"/>
+      <c r="BK5" s="35"/>
+      <c r="BL5" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="BM5" s="39"/>
-      <c r="BN5" s="39"/>
-      <c r="BO5" s="39"/>
-      <c r="BP5" s="39"/>
-      <c r="BQ5" s="39"/>
-      <c r="BR5" s="39"/>
-      <c r="BS5" s="40"/>
-      <c r="BT5" s="40"/>
-      <c r="BU5" s="37" t="s">
+      <c r="BM5" s="52"/>
+      <c r="BN5" s="52"/>
+      <c r="BO5" s="52"/>
+      <c r="BP5" s="52"/>
+      <c r="BQ5" s="52"/>
+      <c r="BR5" s="52"/>
+      <c r="BS5" s="35"/>
+      <c r="BT5" s="35"/>
+      <c r="BU5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="BV5" s="36"/>
-      <c r="BW5" s="37" t="s">
+      <c r="BV5" s="33"/>
+      <c r="BW5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="BX5" s="37" t="s">
+      <c r="BX5" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="BY5" s="37" t="s">
+      <c r="BY5" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="BZ5" s="37" t="s">
+      <c r="BZ5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="CA5" s="37" t="s">
+      <c r="CA5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="CB5" s="37" t="s">
+      <c r="CB5" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="CC5" s="37" t="s">
+      <c r="CC5" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="CD5" s="37" t="s">
+      <c r="CD5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="CE5" s="37" t="s">
+      <c r="CE5" s="34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:87" s="44" customFormat="1" ht="36">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="46"/>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="46"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="46"/>
-      <c r="AU6" s="46" t="s">
+    <row r="6" spans="1:87" s="37" customFormat="1" ht="36">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="39"/>
+      <c r="AT6" s="39"/>
+      <c r="AU6" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AV6" s="46" t="s">
+      <c r="AV6" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="AW6" s="46" t="s">
+      <c r="AW6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="AX6" s="46" t="s">
+      <c r="AX6" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AY6" s="46"/>
-      <c r="AZ6" s="46" t="s">
+      <c r="AY6" s="39"/>
+      <c r="AZ6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="BA6" s="46" t="s">
+      <c r="BA6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="BB6" s="46" t="s">
+      <c r="BB6" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="BC6" s="46" t="s">
+      <c r="BC6" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="BD6" s="46"/>
-      <c r="BE6" s="46" t="s">
+      <c r="BD6" s="39"/>
+      <c r="BE6" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="BF6" s="46" t="s">
+      <c r="BF6" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="BG6" s="46" t="s">
+      <c r="BG6" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="BH6" s="46" t="s">
+      <c r="BH6" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="BI6" s="46" t="s">
+      <c r="BI6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="BJ6" s="46" t="s">
+      <c r="BJ6" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="BK6" s="46"/>
-      <c r="BL6" s="46" t="s">
+      <c r="BK6" s="39"/>
+      <c r="BL6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="BM6" s="46" t="s">
+      <c r="BM6" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="BN6" s="46" t="s">
+      <c r="BN6" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="BO6" s="46" t="s">
+      <c r="BO6" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="BP6" s="46" t="s">
+      <c r="BP6" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="BQ6" s="46" t="s">
+      <c r="BQ6" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="BR6" s="46" t="s">
+      <c r="BR6" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="BS6" s="47" t="s">
+      <c r="BS6" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="BT6" s="46"/>
-      <c r="BU6" s="46"/>
-      <c r="BV6" s="46"/>
-      <c r="BW6" s="46"/>
-      <c r="BX6" s="46"/>
-      <c r="BY6" s="46"/>
-      <c r="BZ6" s="46"/>
-      <c r="CA6" s="46"/>
-      <c r="CB6" s="46"/>
-      <c r="CC6" s="46"/>
-      <c r="CD6" s="46"/>
-      <c r="CE6" s="46"/>
-      <c r="CF6" s="48"/>
-      <c r="CG6" s="48"/>
-    </row>
-    <row r="7" spans="1:87" s="34" customFormat="1" ht="13" thickBot="1">
-      <c r="A7" s="49">
+      <c r="BT6" s="39"/>
+      <c r="BU6" s="39"/>
+      <c r="BV6" s="39"/>
+      <c r="BW6" s="39"/>
+      <c r="BX6" s="39"/>
+      <c r="BY6" s="39"/>
+      <c r="BZ6" s="39"/>
+      <c r="CA6" s="39"/>
+      <c r="CB6" s="39"/>
+      <c r="CC6" s="39"/>
+      <c r="CD6" s="39"/>
+      <c r="CE6" s="39"/>
+      <c r="CF6" s="41"/>
+      <c r="CG6" s="41"/>
+    </row>
+    <row r="7" spans="1:87" s="31" customFormat="1" ht="13" thickBot="1">
+      <c r="A7" s="42">
         <v>2012</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="43">
         <v>1.6009197114864318</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="43">
         <v>0.71262332857266719</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="43">
         <v>2.3135430400590993</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43">
         <v>3.8691858552928424E-3</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="43">
         <v>1.2324616536321744</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="43">
         <v>4.5371928531538555E-3</v>
       </c>
-      <c r="I7" s="50">
+      <c r="I7" s="43">
         <v>1.2408680323406212</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50">
+      <c r="J7" s="43"/>
+      <c r="K7" s="43">
         <v>1.2194526853200875E-2</v>
       </c>
-      <c r="L7" s="50">
+      <c r="L7" s="43">
         <v>0.15744795328276409</v>
       </c>
-      <c r="M7" s="50">
+      <c r="M7" s="43">
         <v>1.7496623867250245</v>
       </c>
-      <c r="N7" s="50">
+      <c r="N7" s="43">
         <v>0.22655737506173987</v>
       </c>
-      <c r="O7" s="50">
+      <c r="O7" s="43">
         <v>1.2157779221686147</v>
       </c>
-      <c r="P7" s="50">
+      <c r="P7" s="43">
         <v>5.4823651155155091E-2</v>
       </c>
-      <c r="Q7" s="50">
+      <c r="Q7" s="43">
         <v>3.4164638152464986</v>
       </c>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50">
+      <c r="R7" s="43"/>
+      <c r="S7" s="43">
         <v>0.38734453019153153</v>
       </c>
-      <c r="T7" s="50">
+      <c r="T7" s="43">
         <v>1.8647092161913223</v>
       </c>
-      <c r="U7" s="50">
+      <c r="U7" s="43">
         <v>0.52495836591147005</v>
       </c>
-      <c r="V7" s="50">
+      <c r="V7" s="43">
         <v>17.271470310240389</v>
       </c>
-      <c r="W7" s="50">
+      <c r="W7" s="43">
         <v>3.242325399592727</v>
       </c>
-      <c r="X7" s="50">
+      <c r="X7" s="43">
         <v>4.475606049153197</v>
       </c>
-      <c r="Y7" s="50">
+      <c r="Y7" s="43">
         <v>0.61324390889954083</v>
       </c>
-      <c r="Z7" s="50">
+      <c r="Z7" s="43">
         <v>2.0078109584515844</v>
       </c>
-      <c r="AA7" s="50">
+      <c r="AA7" s="43">
         <v>30.387468738631767</v>
       </c>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50">
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43">
         <v>4.917422006615193</v>
       </c>
-      <c r="AD7" s="50">
+      <c r="AD7" s="43">
         <v>1.1795905966714839</v>
       </c>
-      <c r="AE7" s="50">
+      <c r="AE7" s="43">
         <v>4.1367931098933663</v>
       </c>
-      <c r="AF7" s="50">
+      <c r="AF7" s="43">
         <v>2.0231968829107227</v>
       </c>
-      <c r="AG7" s="50">
+      <c r="AG7" s="43">
         <v>0.51118775788473458</v>
       </c>
-      <c r="AH7" s="50">
+      <c r="AH7" s="43">
         <v>12.768190353975504</v>
       </c>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="50">
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43">
         <v>2.2269686505657313</v>
       </c>
-      <c r="AK7" s="50">
+      <c r="AK7" s="43">
         <v>1.5132522717971515E-2</v>
       </c>
-      <c r="AL7" s="50">
+      <c r="AL7" s="43">
         <v>1.8750754018979351E-2</v>
       </c>
-      <c r="AM7" s="50">
+      <c r="AM7" s="43">
         <v>3.3710123086301573</v>
       </c>
-      <c r="AN7" s="50">
+      <c r="AN7" s="43">
         <v>0.14621973577582556</v>
       </c>
-      <c r="AO7" s="50">
+      <c r="AO7" s="43">
         <v>0.4902998226086136</v>
       </c>
-      <c r="AP7" s="50">
+      <c r="AP7" s="43">
         <v>2.2148892515426351E-2</v>
       </c>
-      <c r="AQ7" s="50">
+      <c r="AQ7" s="43">
         <v>6.2905326868327052</v>
       </c>
-      <c r="AR7" s="50"/>
-      <c r="AS7" s="50">
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43">
         <v>1.7608412733524486</v>
       </c>
-      <c r="AT7" s="50"/>
-      <c r="AU7" s="50">
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43">
         <v>3.3272122734794856</v>
       </c>
-      <c r="AV7" s="50">
+      <c r="AV7" s="43">
         <v>1.0122752961355267E-5</v>
       </c>
-      <c r="AW7" s="50">
+      <c r="AW7" s="43">
         <v>0</v>
       </c>
-      <c r="AX7" s="50">
+      <c r="AX7" s="43">
         <v>3.3272223962324468</v>
       </c>
-      <c r="AY7" s="50"/>
-      <c r="AZ7" s="50">
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="43">
         <v>0.35312191525122305</v>
       </c>
-      <c r="BA7" s="50">
+      <c r="BA7" s="43">
         <v>7.4820118040555536E-2</v>
       </c>
-      <c r="BB7" s="50">
+      <c r="BB7" s="43">
         <v>7.7186544125006682</v>
       </c>
-      <c r="BC7" s="50">
+      <c r="BC7" s="43">
         <v>8.1465964457924471</v>
       </c>
-      <c r="BD7" s="50"/>
-      <c r="BE7" s="50">
+      <c r="BD7" s="43"/>
+      <c r="BE7" s="43">
         <v>0.37809795079268782</v>
       </c>
-      <c r="BF7" s="50">
+      <c r="BF7" s="43">
         <v>1.5734630072950844</v>
       </c>
-      <c r="BG7" s="50">
+      <c r="BG7" s="43">
         <v>2.7543534847107387</v>
       </c>
-      <c r="BH7" s="50">
+      <c r="BH7" s="43">
         <v>9.9761941289074452E-2</v>
       </c>
-      <c r="BI7" s="50">
+      <c r="BI7" s="43">
         <v>0</v>
       </c>
-      <c r="BJ7" s="50">
+      <c r="BJ7" s="43">
         <v>4.8056763840875858</v>
       </c>
-      <c r="BK7" s="50"/>
-      <c r="BL7" s="50">
+      <c r="BK7" s="43"/>
+      <c r="BL7" s="43">
         <v>0</v>
       </c>
-      <c r="BM7" s="50">
+      <c r="BM7" s="43">
         <v>1.3601041209772537</v>
       </c>
-      <c r="BN7" s="50">
+      <c r="BN7" s="43">
         <v>12.687929000599061</v>
       </c>
-      <c r="BO7" s="50">
+      <c r="BO7" s="43">
         <v>8.2224064818931214E-2</v>
       </c>
-      <c r="BP7" s="50">
+      <c r="BP7" s="43">
         <v>1.1297439073633684</v>
       </c>
-      <c r="BQ7" s="50">
+      <c r="BQ7" s="43">
         <v>11.03207568615696</v>
       </c>
-      <c r="BR7" s="50">
+      <c r="BR7" s="43">
         <v>5.9340394684546114</v>
       </c>
-      <c r="BS7" s="50">
+      <c r="BS7" s="43">
         <v>32.226116248370182</v>
       </c>
-      <c r="BT7" s="50"/>
-      <c r="BU7" s="50">
+      <c r="BT7" s="43"/>
+      <c r="BU7" s="43">
         <v>48.505611474482663</v>
       </c>
-      <c r="BV7" s="50"/>
-      <c r="BW7" s="50">
+      <c r="BV7" s="43"/>
+      <c r="BW7" s="43">
         <v>5.6882617906082004E-2</v>
       </c>
-      <c r="BX7" s="50">
+      <c r="BX7" s="43">
         <v>0.12237476890988576</v>
       </c>
-      <c r="BY7" s="50">
+      <c r="BY7" s="43">
         <v>2.994242944436783E-2</v>
       </c>
-      <c r="BZ7" s="50">
+      <c r="BZ7" s="43">
         <v>6.6985267954585434E-3</v>
       </c>
-      <c r="CA7" s="50">
+      <c r="CA7" s="43">
         <v>0.19743083486080842</v>
       </c>
-      <c r="CB7" s="50">
+      <c r="CB7" s="43">
         <v>1.8179626095720913</v>
       </c>
-      <c r="CC7" s="50">
+      <c r="CC7" s="43">
         <v>0.10022783283858971</v>
       </c>
-      <c r="CD7" s="50">
+      <c r="CD7" s="43">
         <v>0.74774758283885123</v>
       </c>
-      <c r="CE7" s="50">
+      <c r="CE7" s="43">
         <v>3.0792672031661348</v>
       </c>
-      <c r="CF7" s="50"/>
-      <c r="CG7" s="50">
+      <c r="CF7" s="43"/>
+      <c r="CG7" s="43">
         <v>109.76278661808743</v>
       </c>
     </row>
-    <row r="8" spans="1:87" s="34" customFormat="1" ht="13" thickTop="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="52"/>
-      <c r="AK8" s="52"/>
-      <c r="AL8" s="52"/>
-      <c r="AM8" s="52"/>
-      <c r="AN8" s="52"/>
-      <c r="AO8" s="52"/>
-      <c r="AP8" s="52"/>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="52"/>
-      <c r="AT8" s="52"/>
-      <c r="AU8" s="52"/>
-      <c r="AV8" s="52"/>
-      <c r="AW8" s="52"/>
-      <c r="AX8" s="52"/>
-      <c r="AY8" s="52"/>
-      <c r="AZ8" s="52"/>
-      <c r="BA8" s="52"/>
-      <c r="BB8" s="52"/>
-      <c r="BC8" s="52"/>
-      <c r="BD8" s="52"/>
-      <c r="BE8" s="52"/>
-      <c r="BF8" s="52"/>
-      <c r="BG8" s="52"/>
-      <c r="BH8" s="52"/>
-      <c r="BI8" s="52"/>
-      <c r="BJ8" s="52"/>
-      <c r="BK8" s="52"/>
-      <c r="BL8" s="52"/>
-      <c r="BM8" s="52"/>
-      <c r="BN8" s="52"/>
-      <c r="BO8" s="52"/>
-      <c r="BP8" s="52"/>
-      <c r="BQ8" s="52"/>
-      <c r="BR8" s="52"/>
-      <c r="BS8" s="52"/>
-      <c r="BT8" s="52"/>
-      <c r="BU8" s="52"/>
-      <c r="BV8" s="52"/>
-      <c r="BW8" s="52"/>
-      <c r="BX8" s="52"/>
-      <c r="BY8" s="52"/>
-      <c r="BZ8" s="52"/>
-      <c r="CA8" s="52"/>
-      <c r="CB8" s="52"/>
-      <c r="CC8" s="52"/>
-      <c r="CD8" s="52"/>
-      <c r="CE8" s="52"/>
-      <c r="CF8" s="52"/>
-      <c r="CG8" s="52"/>
+    <row r="8" spans="1:87" s="31" customFormat="1" ht="13" thickTop="1">
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="45"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="45"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="45"/>
+      <c r="AU8" s="45"/>
+      <c r="AV8" s="45"/>
+      <c r="AW8" s="45"/>
+      <c r="AX8" s="45"/>
+      <c r="AY8" s="45"/>
+      <c r="AZ8" s="45"/>
+      <c r="BA8" s="45"/>
+      <c r="BB8" s="45"/>
+      <c r="BC8" s="45"/>
+      <c r="BD8" s="45"/>
+      <c r="BE8" s="45"/>
+      <c r="BF8" s="45"/>
+      <c r="BG8" s="45"/>
+      <c r="BH8" s="45"/>
+      <c r="BI8" s="45"/>
+      <c r="BJ8" s="45"/>
+      <c r="BK8" s="45"/>
+      <c r="BL8" s="45"/>
+      <c r="BM8" s="45"/>
+      <c r="BN8" s="45"/>
+      <c r="BO8" s="45"/>
+      <c r="BP8" s="45"/>
+      <c r="BQ8" s="45"/>
+      <c r="BR8" s="45"/>
+      <c r="BS8" s="45"/>
+      <c r="BT8" s="45"/>
+      <c r="BU8" s="45"/>
+      <c r="BV8" s="45"/>
+      <c r="BW8" s="45"/>
+      <c r="BX8" s="45"/>
+      <c r="BY8" s="45"/>
+      <c r="BZ8" s="45"/>
+      <c r="CA8" s="45"/>
+      <c r="CB8" s="45"/>
+      <c r="CC8" s="45"/>
+      <c r="CD8" s="45"/>
+      <c r="CE8" s="45"/>
+      <c r="CF8" s="45"/>
+      <c r="CG8" s="45"/>
     </row>
     <row r="9" spans="1:87">
       <c r="A9" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="CG9" s="56" t="s">
+      <c r="CG9" s="49" t="s">
         <v>21</v>
       </c>
       <c r="CH9" s="25" t="s">
@@ -2830,105 +2947,105 @@
       <c r="A10" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="AU10" s="55">
+      <c r="AU10" s="48">
         <f>AU7</f>
         <v>3.3272122734794856</v>
       </c>
-      <c r="AV10" s="55">
+      <c r="AV10" s="48">
         <f>AV7</f>
         <v>1.0122752961355267E-5</v>
       </c>
-      <c r="AW10" s="55"/>
-      <c r="AX10" s="55"/>
-      <c r="AY10" s="55"/>
-      <c r="AZ10" s="55">
+      <c r="AW10" s="48"/>
+      <c r="AX10" s="48"/>
+      <c r="AY10" s="48"/>
+      <c r="AZ10" s="48">
         <f>AZ7</f>
         <v>0.35312191525122305</v>
       </c>
-      <c r="BA10" s="55"/>
-      <c r="BB10" s="55">
+      <c r="BA10" s="48"/>
+      <c r="BB10" s="48">
         <f>BB7</f>
         <v>7.7186544125006682</v>
       </c>
-      <c r="BC10" s="55"/>
-      <c r="BD10" s="55"/>
-      <c r="BE10" s="55">
+      <c r="BC10" s="48"/>
+      <c r="BD10" s="48"/>
+      <c r="BE10" s="48">
         <f>BE7</f>
         <v>0.37809795079268782</v>
       </c>
-      <c r="BF10" s="55">
+      <c r="BF10" s="48">
         <f>BF7</f>
         <v>1.5734630072950844</v>
       </c>
-      <c r="BG10" s="55">
+      <c r="BG10" s="48">
         <f>BG7</f>
         <v>2.7543534847107387</v>
       </c>
-      <c r="BH10" s="55">
+      <c r="BH10" s="48">
         <f>BH7</f>
         <v>9.9761941289074452E-2</v>
       </c>
-      <c r="BI10" s="55"/>
-      <c r="BJ10" s="55"/>
-      <c r="BK10" s="55"/>
-      <c r="BL10" s="55"/>
-      <c r="BM10" s="55">
-        <f>BM7</f>
+      <c r="BI10" s="48"/>
+      <c r="BJ10" s="48"/>
+      <c r="BK10" s="48"/>
+      <c r="BL10" s="48"/>
+      <c r="BM10" s="48">
+        <f t="shared" ref="BM10:BR10" si="0">BM7</f>
         <v>1.3601041209772537</v>
       </c>
-      <c r="BN10" s="55">
-        <f>BN7</f>
+      <c r="BN10" s="48">
+        <f t="shared" si="0"/>
         <v>12.687929000599061</v>
       </c>
-      <c r="BO10" s="55">
-        <f>BO7</f>
+      <c r="BO10" s="48">
+        <f t="shared" si="0"/>
         <v>8.2224064818931214E-2</v>
       </c>
-      <c r="BP10" s="55">
-        <f>BP7</f>
+      <c r="BP10" s="48">
+        <f t="shared" si="0"/>
         <v>1.1297439073633684</v>
       </c>
-      <c r="BQ10" s="55">
-        <f>BQ7</f>
+      <c r="BQ10" s="48">
+        <f t="shared" si="0"/>
         <v>11.03207568615696</v>
       </c>
-      <c r="BR10" s="55">
-        <f>BR7</f>
+      <c r="BR10" s="48">
+        <f t="shared" si="0"/>
         <v>5.9340394684546114</v>
       </c>
-      <c r="BS10" s="55"/>
-      <c r="BT10" s="55"/>
-      <c r="BU10" s="55"/>
-      <c r="BV10" s="55"/>
-      <c r="BW10" s="55">
+      <c r="BS10" s="48"/>
+      <c r="BT10" s="48"/>
+      <c r="BU10" s="48"/>
+      <c r="BV10" s="48"/>
+      <c r="BW10" s="48">
         <f>BW7</f>
         <v>5.6882617906082004E-2</v>
       </c>
-      <c r="BX10" s="55">
+      <c r="BX10" s="48">
         <f>BX7</f>
         <v>0.12237476890988576</v>
       </c>
-      <c r="BY10" s="55"/>
-      <c r="BZ10" s="55">
+      <c r="BY10" s="48"/>
+      <c r="BZ10" s="48">
         <f>BZ7</f>
         <v>6.6985267954585434E-3</v>
       </c>
-      <c r="CA10" s="55">
+      <c r="CA10" s="48">
         <f>CA7</f>
         <v>0.19743083486080842</v>
       </c>
-      <c r="CB10" s="55">
+      <c r="CB10" s="48">
         <f>CB7</f>
         <v>1.8179626095720913</v>
       </c>
-      <c r="CC10" s="55"/>
-      <c r="CD10" s="55">
+      <c r="CC10" s="48"/>
+      <c r="CD10" s="48">
         <f>CD7</f>
         <v>0.74774758283885123</v>
       </c>
-      <c r="CE10" s="55"/>
-      <c r="CF10" s="55"/>
-      <c r="CG10" s="56">
+      <c r="CE10" s="48"/>
+      <c r="CF10" s="48"/>
+      <c r="CG10" s="49">
         <f>SUM(AU10:CE10)</f>
         <v>51.379888297325287</v>
       </c>
@@ -2941,53 +3058,53 @@
       <c r="A11" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="AU11" s="55"/>
-      <c r="AV11" s="55"/>
-      <c r="AW11" s="55"/>
-      <c r="AX11" s="55"/>
-      <c r="AY11" s="55"/>
-      <c r="AZ11" s="55"/>
-      <c r="BA11" s="55"/>
-      <c r="BB11" s="55"/>
-      <c r="BC11" s="55"/>
-      <c r="BD11" s="55"/>
-      <c r="BE11" s="55"/>
-      <c r="BF11" s="55"/>
-      <c r="BG11" s="55"/>
-      <c r="BH11" s="55"/>
-      <c r="BI11" s="55"/>
-      <c r="BJ11" s="55"/>
-      <c r="BK11" s="55"/>
-      <c r="BL11" s="55"/>
-      <c r="BM11" s="55"/>
-      <c r="BN11" s="55"/>
-      <c r="BO11" s="55"/>
-      <c r="BP11" s="55"/>
-      <c r="BQ11" s="55"/>
-      <c r="BR11" s="55"/>
-      <c r="BS11" s="55"/>
-      <c r="BT11" s="55"/>
-      <c r="BU11" s="55"/>
-      <c r="BV11" s="55"/>
-      <c r="BW11" s="55"/>
-      <c r="BX11" s="55"/>
-      <c r="BY11" s="55"/>
-      <c r="BZ11" s="55"/>
-      <c r="CA11" s="55"/>
-      <c r="CB11" s="55"/>
-      <c r="CC11" s="55">
+      <c r="AU11" s="48"/>
+      <c r="AV11" s="48"/>
+      <c r="AW11" s="48"/>
+      <c r="AX11" s="48"/>
+      <c r="AY11" s="48"/>
+      <c r="AZ11" s="48"/>
+      <c r="BA11" s="48"/>
+      <c r="BB11" s="48"/>
+      <c r="BC11" s="48"/>
+      <c r="BD11" s="48"/>
+      <c r="BE11" s="48"/>
+      <c r="BF11" s="48"/>
+      <c r="BG11" s="48"/>
+      <c r="BH11" s="48"/>
+      <c r="BI11" s="48"/>
+      <c r="BJ11" s="48"/>
+      <c r="BK11" s="48"/>
+      <c r="BL11" s="48"/>
+      <c r="BM11" s="48"/>
+      <c r="BN11" s="48"/>
+      <c r="BO11" s="48"/>
+      <c r="BP11" s="48"/>
+      <c r="BQ11" s="48"/>
+      <c r="BR11" s="48"/>
+      <c r="BS11" s="48"/>
+      <c r="BT11" s="48"/>
+      <c r="BU11" s="48"/>
+      <c r="BV11" s="48"/>
+      <c r="BW11" s="48"/>
+      <c r="BX11" s="48"/>
+      <c r="BY11" s="48"/>
+      <c r="BZ11" s="48"/>
+      <c r="CA11" s="48"/>
+      <c r="CB11" s="48"/>
+      <c r="CC11" s="48">
         <f>CC7</f>
         <v>0.10022783283858971</v>
       </c>
-      <c r="CD11" s="55"/>
-      <c r="CE11" s="55"/>
-      <c r="CF11" s="55"/>
-      <c r="CG11" s="56">
-        <f t="shared" ref="CG11:CG12" si="0">SUM(AU11:CE11)</f>
+      <c r="CD11" s="48"/>
+      <c r="CE11" s="48"/>
+      <c r="CF11" s="48"/>
+      <c r="CG11" s="49">
+        <f t="shared" ref="CG11:CG12" si="1">SUM(AU11:CE11)</f>
         <v>0.10022783283858971</v>
       </c>
       <c r="CH11" s="25">
-        <f t="shared" ref="CH11:CH12" si="1">CG11/$CG$13</f>
+        <f t="shared" ref="CH11:CH12" si="2">CG11/$CG$13</f>
         <v>1.9429692461798384E-3</v>
       </c>
     </row>
@@ -2995,93 +3112,93 @@
       <c r="A12" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="AU12" s="55"/>
-      <c r="AV12" s="55"/>
-      <c r="AW12" s="55">
+      <c r="AU12" s="48"/>
+      <c r="AV12" s="48"/>
+      <c r="AW12" s="48">
         <f>AW7</f>
         <v>0</v>
       </c>
-      <c r="AX12" s="55"/>
-      <c r="AY12" s="55"/>
-      <c r="AZ12" s="55"/>
-      <c r="BA12" s="55">
+      <c r="AX12" s="48"/>
+      <c r="AY12" s="48"/>
+      <c r="AZ12" s="48"/>
+      <c r="BA12" s="48">
         <f>BA7</f>
         <v>7.4820118040555536E-2</v>
       </c>
-      <c r="BB12" s="55"/>
-      <c r="BC12" s="55"/>
-      <c r="BD12" s="55"/>
-      <c r="BE12" s="55"/>
-      <c r="BF12" s="55"/>
-      <c r="BG12" s="55"/>
-      <c r="BH12" s="55"/>
-      <c r="BI12" s="55">
+      <c r="BB12" s="48"/>
+      <c r="BC12" s="48"/>
+      <c r="BD12" s="48"/>
+      <c r="BE12" s="48"/>
+      <c r="BF12" s="48"/>
+      <c r="BG12" s="48"/>
+      <c r="BH12" s="48"/>
+      <c r="BI12" s="48">
         <f>BI7</f>
         <v>0</v>
       </c>
-      <c r="BJ12" s="55"/>
-      <c r="BK12" s="55"/>
-      <c r="BL12" s="55">
+      <c r="BJ12" s="48"/>
+      <c r="BK12" s="48"/>
+      <c r="BL12" s="48">
         <f>BL7</f>
         <v>0</v>
       </c>
-      <c r="BM12" s="55"/>
-      <c r="BN12" s="55"/>
-      <c r="BO12" s="55"/>
-      <c r="BP12" s="55"/>
-      <c r="BQ12" s="55"/>
-      <c r="BR12" s="55"/>
-      <c r="BS12" s="55"/>
-      <c r="BT12" s="55"/>
-      <c r="BU12" s="55"/>
-      <c r="BV12" s="55"/>
-      <c r="BW12" s="55"/>
-      <c r="BX12" s="55"/>
-      <c r="BY12" s="55">
+      <c r="BM12" s="48"/>
+      <c r="BN12" s="48"/>
+      <c r="BO12" s="48"/>
+      <c r="BP12" s="48"/>
+      <c r="BQ12" s="48"/>
+      <c r="BR12" s="48"/>
+      <c r="BS12" s="48"/>
+      <c r="BT12" s="48"/>
+      <c r="BU12" s="48"/>
+      <c r="BV12" s="48"/>
+      <c r="BW12" s="48"/>
+      <c r="BX12" s="48"/>
+      <c r="BY12" s="48">
         <f>BY7</f>
         <v>2.994242944436783E-2</v>
       </c>
-      <c r="BZ12" s="55"/>
-      <c r="CA12" s="55"/>
-      <c r="CB12" s="55"/>
-      <c r="CC12" s="55"/>
-      <c r="CD12" s="55"/>
-      <c r="CE12" s="55"/>
-      <c r="CF12" s="55"/>
-      <c r="CG12" s="56">
-        <f t="shared" si="0"/>
+      <c r="BZ12" s="48"/>
+      <c r="CA12" s="48"/>
+      <c r="CB12" s="48"/>
+      <c r="CC12" s="48"/>
+      <c r="CD12" s="48"/>
+      <c r="CE12" s="48"/>
+      <c r="CF12" s="48"/>
+      <c r="CG12" s="49">
+        <f t="shared" si="1"/>
         <v>0.10476254748492336</v>
       </c>
       <c r="CH12" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0308770742600564E-3</v>
       </c>
     </row>
     <row r="13" spans="1:87">
-      <c r="CG13" s="56">
+      <c r="CG13" s="49">
         <f>SUM(CG10:CG12)</f>
         <v>51.584878677648803</v>
       </c>
       <c r="CH13" s="25"/>
-      <c r="CI13" s="55">
+      <c r="CI13" s="48">
         <f>CG13-CE7-BU7</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AJ4:AQ4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="S4:AA4"/>
+    <mergeCell ref="AC4:AH4"/>
     <mergeCell ref="AU4:BU4"/>
     <mergeCell ref="BW4:CE4"/>
     <mergeCell ref="AU5:AX5"/>
     <mergeCell ref="AZ5:BC5"/>
     <mergeCell ref="BE5:BJ5"/>
     <mergeCell ref="BL5:BR5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="S4:AA4"/>
-    <mergeCell ref="AC4:AH4"/>
-    <mergeCell ref="AJ4:AQ4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" location="Title!A1" display="Return to Title page"/>
@@ -3098,1273 +3215,1218 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J63"/>
+  <dimension ref="B2:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="3.83203125" customWidth="1"/>
+    <col min="6" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="3.83203125" customWidth="1"/>
+    <col min="11" max="15" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="57" t="s">
+    <row r="2" spans="2:14" ht="20">
+      <c r="B2" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="C2" s="57"/>
+    </row>
+    <row r="3" spans="2:14" ht="20">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="J1" s="59" t="s">
+      <c r="C4" s="58"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="59" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="J2" s="60">
-        <v>41868</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57" t="s">
+      <c r="C5" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="59">
-        <v>2011</v>
-      </c>
-      <c r="D3" s="59">
-        <v>2012</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="59">
-        <v>2011</v>
-      </c>
-      <c r="H3" s="59">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="61" t="s">
+      <c r="D5" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="E5" s="59"/>
+      <c r="F5" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="60">
-        <v>2.52E-2</v>
-      </c>
-      <c r="D4" s="60">
-        <v>1.52E-2</v>
-      </c>
-      <c r="F4" s="57" t="s">
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="60">
-        <f>C4*$J$2</f>
-        <v>1055.0735999999999</v>
-      </c>
-      <c r="H4" s="60">
-        <f>D4*$J$2</f>
-        <v>636.39359999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="61" t="s">
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+    </row>
+    <row r="6" spans="2:14" s="61" customFormat="1" ht="45">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="60">
-        <v>0.99390000000000001</v>
-      </c>
-      <c r="D5" s="60">
-        <v>0.90580000000000005</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="60">
-        <f t="shared" ref="G5:H39" si="0">C5*$J$2</f>
-        <v>41612.605199999998</v>
-      </c>
-      <c r="H5" s="60">
-        <f t="shared" si="0"/>
-        <v>37924.034400000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="61" t="s">
+      <c r="G6" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="60">
-        <v>6.9763999999999999</v>
-      </c>
-      <c r="D6" s="60">
-        <v>7.4367000000000001</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="60">
-        <f t="shared" si="0"/>
-        <v>292087.91519999999</v>
-      </c>
-      <c r="H6" s="60">
-        <f t="shared" si="0"/>
-        <v>311359.75559999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="61" t="s">
+      <c r="H6" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="60">
-        <v>0.38479999999999998</v>
-      </c>
-      <c r="D7" s="60">
-        <v>0.38579999999999998</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="60">
-        <f t="shared" si="0"/>
-        <v>16110.806399999999</v>
-      </c>
-      <c r="H7" s="60">
-        <f t="shared" si="0"/>
-        <v>16152.6744</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="61" t="s">
+      <c r="I6" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="60">
-        <v>0.10050000000000001</v>
-      </c>
-      <c r="D8" s="60">
-        <v>0.1182</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="60">
-        <f>C8*$J$2</f>
-        <v>4207.7340000000004</v>
-      </c>
-      <c r="H8" s="60">
-        <f t="shared" si="0"/>
-        <v>4948.7975999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="61" t="s">
+      <c r="J6" s="60"/>
+      <c r="K6" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="N6" s="60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="61" customFormat="1">
+      <c r="B7" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="60">
-        <v>8.2451000000000008</v>
-      </c>
-      <c r="D9" s="60">
-        <v>8.3488000000000007</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="60">
-        <f t="shared" si="0"/>
-        <v>345205.84680000006</v>
-      </c>
-      <c r="H9" s="60">
-        <f t="shared" si="0"/>
-        <v>349547.55840000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="61" t="s">
+      <c r="C7" s="62">
+        <v>2.65</v>
+      </c>
+      <c r="D7" s="63">
+        <v>1</v>
+      </c>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8">
+        <v>0.71</v>
+      </c>
+      <c r="D8" s="65">
+        <f>C8/C$7</f>
+        <v>0.26792452830188679</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="65" t="str">
+        <f>IF(ISNUMBER(F8),F8*$D8,"")</f>
+        <v/>
+      </c>
+      <c r="L8" s="65" t="str">
+        <f t="shared" ref="L8:N21" si="0">IF(ISNUMBER(G8),G8*$D8,"")</f>
+        <v/>
+      </c>
+      <c r="M8" s="65">
+        <f t="shared" si="0"/>
+        <v>0.26792452830188679</v>
+      </c>
+      <c r="N8" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="60">
-        <v>16.7258</v>
-      </c>
-      <c r="D10" s="60">
-        <v>17.2105</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="60">
-        <f t="shared" si="0"/>
-        <v>700275.79440000001</v>
-      </c>
-      <c r="H10" s="60">
-        <f t="shared" si="0"/>
-        <v>720569.21400000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="61" t="s">
+      <c r="C9">
+        <v>0.44</v>
+      </c>
+      <c r="D9" s="65">
+        <f t="shared" ref="D9:D21" si="1">C9/C$7</f>
+        <v>0.16603773584905662</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="65" t="str">
+        <f t="shared" ref="K9:K21" si="2">IF(ISNUMBER(F9),F9*$D9,"")</f>
+        <v/>
+      </c>
+      <c r="L9" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M9" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N9" s="65">
+        <f t="shared" si="0"/>
+        <v>0.16603773584905662</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="60">
-        <v>17.484300000000001</v>
-      </c>
-      <c r="D11" s="60">
-        <v>17.1663</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="60">
-        <f t="shared" si="0"/>
-        <v>732032.67240000004</v>
-      </c>
-      <c r="H11" s="60">
-        <f t="shared" si="0"/>
-        <v>718718.64839999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="61" t="s">
+      <c r="C10">
+        <v>0.54</v>
+      </c>
+      <c r="D10" s="65">
+        <f t="shared" si="1"/>
+        <v>0.20377358490566039</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="65">
+        <f t="shared" si="2"/>
+        <v>0.20377358490566039</v>
+      </c>
+      <c r="L10" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="60">
-        <v>0.95379999999999998</v>
-      </c>
-      <c r="D12" s="60">
-        <v>0.96260000000000001</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="60">
-        <f t="shared" si="0"/>
-        <v>39933.698400000001</v>
-      </c>
-      <c r="H12" s="60">
-        <f t="shared" si="0"/>
-        <v>40302.1368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="61" t="s">
+      <c r="C11">
+        <v>0.08</v>
+      </c>
+      <c r="D11" s="65">
+        <f t="shared" si="1"/>
+        <v>3.0188679245283019E-2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="65">
+        <f t="shared" si="0"/>
+        <v>3.0188679245283019E-2</v>
+      </c>
+      <c r="M11" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="60">
-        <v>2.0855000000000001</v>
-      </c>
-      <c r="D13" s="60">
-        <v>2.1656</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="60">
-        <f t="shared" si="0"/>
-        <v>87315.714000000007</v>
-      </c>
-      <c r="H13" s="60">
-        <f t="shared" si="0"/>
-        <v>90669.340800000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="61" t="s">
+      <c r="C12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D12" s="65">
+        <f t="shared" si="1"/>
+        <v>0.10566037735849058</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L12" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M12" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N12" s="65">
+        <f t="shared" si="0"/>
+        <v>0.10566037735849058</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="60">
-        <v>0.34429999999999999</v>
-      </c>
-      <c r="D14" s="60">
-        <v>0.35360000000000003</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="60">
-        <f t="shared" si="0"/>
-        <v>14415.152399999999</v>
-      </c>
-      <c r="H14" s="60">
-        <f t="shared" si="0"/>
-        <v>14804.524800000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="61" t="s">
+      <c r="C13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D13" s="65">
+        <f t="shared" si="1"/>
+        <v>2.6415094339622646E-2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="65">
+        <f t="shared" si="2"/>
+        <v>2.6415094339622646E-2</v>
+      </c>
+      <c r="L13" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M13" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N13" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="60">
-        <v>1.4899</v>
-      </c>
-      <c r="D15" s="60">
-        <v>1.5547</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="60">
-        <f t="shared" si="0"/>
-        <v>62379.133199999997</v>
-      </c>
-      <c r="H15" s="60">
-        <f t="shared" si="0"/>
-        <v>65092.179599999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="61" t="s">
+      <c r="C14">
+        <v>0.09</v>
+      </c>
+      <c r="D14" s="65">
+        <f t="shared" si="1"/>
+        <v>3.3962264150943396E-2</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L14" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M14" s="65">
+        <f t="shared" si="0"/>
+        <v>3.3962264150943396E-2</v>
+      </c>
+      <c r="N14" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="60">
-        <v>0.72319999999999995</v>
-      </c>
-      <c r="D16" s="60">
-        <v>0.74260000000000004</v>
-      </c>
-      <c r="F16" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="60">
-        <f t="shared" si="0"/>
-        <v>30278.937599999997</v>
-      </c>
-      <c r="H16" s="60">
-        <f t="shared" si="0"/>
-        <v>31091.176800000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="61" t="s">
+      <c r="C15">
+        <v>0.12</v>
+      </c>
+      <c r="D15" s="65">
+        <f t="shared" si="1"/>
+        <v>4.5283018867924525E-2</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L15" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M15" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N15" s="65">
+        <f t="shared" si="0"/>
+        <v>4.5283018867924525E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="60">
-        <v>2.6568000000000001</v>
-      </c>
-      <c r="D17" s="60">
-        <v>2.7480000000000002</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="60">
-        <f t="shared" si="0"/>
-        <v>111234.90240000001</v>
-      </c>
-      <c r="H17" s="60">
-        <f t="shared" si="0"/>
-        <v>115053.26400000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="61" t="s">
+      <c r="C16">
+        <v>0.12</v>
+      </c>
+      <c r="D16" s="65">
+        <f t="shared" si="1"/>
+        <v>4.5283018867924525E-2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L16" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M16" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N16" s="65">
+        <f t="shared" si="0"/>
+        <v>4.5283018867924525E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="60">
-        <v>3.6922000000000001</v>
-      </c>
-      <c r="D18" s="60">
-        <v>3.7261000000000002</v>
-      </c>
-      <c r="F18" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="60">
-        <f t="shared" si="0"/>
-        <v>154585.02960000001</v>
-      </c>
-      <c r="H18" s="60">
-        <f t="shared" si="0"/>
-        <v>156004.3548</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="61" t="s">
+      <c r="C17">
+        <v>0.08</v>
+      </c>
+      <c r="D17" s="65">
+        <f t="shared" si="1"/>
+        <v>3.0188679245283019E-2</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L17" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M17" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N17" s="65">
+        <f t="shared" si="0"/>
+        <v>3.0188679245283019E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="60">
-        <v>5.5860000000000003</v>
-      </c>
-      <c r="D19" s="60">
-        <v>5.6959</v>
-      </c>
-      <c r="F19" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="60">
-        <f t="shared" si="0"/>
-        <v>233874.64800000002</v>
-      </c>
-      <c r="H19" s="60">
-        <f t="shared" si="0"/>
-        <v>238475.9412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="61" t="s">
+      <c r="C18">
+        <v>0.08</v>
+      </c>
+      <c r="D18" s="65">
+        <f t="shared" si="1"/>
+        <v>3.0188679245283019E-2</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L18" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M18" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N18" s="65">
+        <f t="shared" si="0"/>
+        <v>3.0188679245283019E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="60">
-        <v>1.2865</v>
-      </c>
-      <c r="D20" s="60">
-        <v>1.3073999999999999</v>
-      </c>
-      <c r="F20" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="60">
-        <f t="shared" si="0"/>
-        <v>53863.182000000001</v>
-      </c>
-      <c r="H20" s="60">
-        <f t="shared" si="0"/>
-        <v>54738.223199999993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="61" t="s">
+      <c r="C19">
+        <v>0.03</v>
+      </c>
+      <c r="D19" s="65">
+        <f t="shared" si="1"/>
+        <v>1.1320754716981131E-2</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L19" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M19" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N19" s="65">
+        <f t="shared" si="0"/>
+        <v>1.1320754716981131E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="60">
-        <v>3.1665999999999999</v>
-      </c>
-      <c r="D21" s="60">
-        <v>3.2692000000000001</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="60">
-        <f t="shared" si="0"/>
-        <v>132579.20879999999</v>
-      </c>
-      <c r="H21" s="60">
-        <f t="shared" si="0"/>
-        <v>136874.86559999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="61" t="s">
+      <c r="C20">
+        <v>0.01</v>
+      </c>
+      <c r="D20" s="65">
+        <f t="shared" si="1"/>
+        <v>3.7735849056603774E-3</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L20" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M20" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N20" s="65">
+        <f t="shared" si="0"/>
+        <v>3.7735849056603774E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="60">
-        <v>0.51429999999999998</v>
-      </c>
-      <c r="D22" s="60">
-        <v>0.52810000000000001</v>
-      </c>
-      <c r="F22" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="60">
-        <f t="shared" si="0"/>
-        <v>21532.7124</v>
-      </c>
-      <c r="H22" s="60">
-        <f t="shared" si="0"/>
-        <v>22110.4908</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="61" t="s">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M21" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N21" s="65"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67">
+        <f>SUM(D8:D21)</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="67">
+        <f>SUM(K8:K21)</f>
+        <v>0.23018867924528302</v>
+      </c>
+      <c r="L22" s="67">
+        <f>SUM(L8:L21)</f>
+        <v>3.0188679245283019E-2</v>
+      </c>
+      <c r="M22" s="67">
+        <f>SUM(M8:M21)</f>
+        <v>0.30188679245283018</v>
+      </c>
+      <c r="N22" s="67">
+        <f>SUM(N8:N20)</f>
+        <v>0.43773584905660379</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="60">
-        <v>1.7137</v>
-      </c>
-      <c r="D23" s="60">
-        <v>1.7763</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="60">
-        <f t="shared" si="0"/>
-        <v>71749.191600000006</v>
-      </c>
-      <c r="H23" s="60">
-        <f t="shared" si="0"/>
-        <v>74370.128400000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="61" t="s">
+      <c r="C24" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="60">
-        <v>0.7722</v>
-      </c>
-      <c r="D24" s="60">
-        <v>0.77929999999999999</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="60">
-        <f t="shared" si="0"/>
-        <v>32330.4696</v>
-      </c>
-      <c r="H24" s="60">
-        <f t="shared" si="0"/>
-        <v>32627.732400000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="61" t="s">
+      <c r="D24" s="68"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="D25" s="68"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="D26" s="68"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="60">
-        <v>1.4529000000000001</v>
-      </c>
-      <c r="D25" s="60">
-        <v>1.4928999999999999</v>
-      </c>
-      <c r="F25" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="60">
-        <f t="shared" si="0"/>
-        <v>60830.017200000002</v>
-      </c>
-      <c r="H25" s="60">
-        <f t="shared" si="0"/>
-        <v>62504.737199999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="61" t="s">
+      <c r="C27" s="58"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="60">
-        <v>2.3E-2</v>
-      </c>
-      <c r="D26" s="60">
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="60">
-        <f t="shared" si="0"/>
-        <v>962.96399999999994</v>
-      </c>
-      <c r="H26" s="60">
-        <f t="shared" si="0"/>
-        <v>556.84439999999995</v>
-      </c>
-      <c r="J26">
-        <f>H26/$H$31</f>
-        <v>1.6063189932123963E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="61" t="s">
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:K36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="11" width="13.33203125" style="70" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="20">
+      <c r="B2" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="60">
-        <v>0.91369999999999996</v>
-      </c>
-      <c r="D27" s="60">
-        <v>0.83109999999999995</v>
-      </c>
-      <c r="F27" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="60">
-        <f t="shared" si="0"/>
-        <v>38254.791599999997</v>
-      </c>
-      <c r="H27" s="60">
-        <f t="shared" si="0"/>
-        <v>34796.4948</v>
-      </c>
-      <c r="J27">
-        <f t="shared" ref="J27:J30" si="1">H27/$H$31</f>
-        <v>0.10037682069615209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="61" t="s">
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="60">
-        <v>5.8583999999999996</v>
-      </c>
-      <c r="D28" s="60">
-        <v>6.2436999999999996</v>
-      </c>
-      <c r="F28" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="60">
-        <f t="shared" si="0"/>
-        <v>245279.49119999999</v>
-      </c>
-      <c r="H28" s="60">
-        <f t="shared" si="0"/>
-        <v>261411.23159999997</v>
-      </c>
-      <c r="J28">
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="66"/>
+      <c r="C6" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="30">
+      <c r="B7" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="73">
+        <v>4315.34</v>
+      </c>
+      <c r="D7" s="73">
+        <v>422432.13</v>
+      </c>
+      <c r="E7" s="73">
+        <v>306363.59999999998</v>
+      </c>
+      <c r="F7" s="73">
+        <v>5272.98</v>
+      </c>
+      <c r="G7" s="73">
+        <v>1511.73</v>
+      </c>
+      <c r="H7" s="73">
+        <v>541937.13</v>
+      </c>
+      <c r="I7" s="73">
+        <v>80218.59</v>
+      </c>
+      <c r="J7" s="73">
+        <v>48855.23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="58" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="66"/>
+      <c r="C12" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="74">
+        <v>1</v>
+      </c>
+      <c r="D13" s="74">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="74">
+        <v>0.9</v>
+      </c>
+      <c r="F13" s="74">
+        <v>1</v>
+      </c>
+      <c r="G13" s="74">
+        <v>1</v>
+      </c>
+      <c r="H13" s="74">
+        <f>[2]Electricity!K22</f>
+        <v>0.23018867924528302</v>
+      </c>
+      <c r="I13" s="74">
+        <v>1</v>
+      </c>
+      <c r="J13" s="74"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74">
+        <f>[2]Electricity!L22</f>
+        <v>3.0188679245283019E-2</v>
+      </c>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74">
+        <f>[2]Electricity!M22</f>
+        <v>0.30188679245283018</v>
+      </c>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76">
+        <f>[2]Electricity!N22</f>
+        <v>0.43773584905660379</v>
+      </c>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="66"/>
+      <c r="C20" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="78">
+        <f t="shared" ref="C21:J24" si="0">C13*C$7</f>
+        <v>4315.34</v>
+      </c>
+      <c r="D21" s="78">
+        <f t="shared" si="0"/>
+        <v>380188.91700000002</v>
+      </c>
+      <c r="E21" s="78">
+        <f t="shared" si="0"/>
+        <v>275727.24</v>
+      </c>
+      <c r="F21" s="78">
+        <f t="shared" si="0"/>
+        <v>5272.98</v>
+      </c>
+      <c r="G21" s="78">
+        <f t="shared" si="0"/>
+        <v>1511.73</v>
+      </c>
+      <c r="H21" s="78">
+        <f>H13*H$7</f>
+        <v>124747.79218867925</v>
+      </c>
+      <c r="I21" s="78">
+        <f t="shared" si="0"/>
+        <v>80218.59</v>
+      </c>
+      <c r="J21" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="79">
+        <f>SUM(C21:J21)</f>
+        <v>871982.58918867912</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="78">
+        <f t="shared" si="0"/>
+        <v>16360.366188679245</v>
+      </c>
+      <c r="I22" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="79">
+        <f>SUM(C22:J22)</f>
+        <v>16360.366188679245</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="78">
+        <f t="shared" si="0"/>
+        <v>163603.66188679246</v>
+      </c>
+      <c r="I23" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="79">
+        <f>SUM(C23:J23)</f>
+        <v>163603.66188679246</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="80">
+        <f t="shared" si="0"/>
+        <v>42243.213000000003</v>
+      </c>
+      <c r="E24" s="80">
+        <f t="shared" si="0"/>
+        <v>30636.36</v>
+      </c>
+      <c r="F24" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="80">
+        <f t="shared" si="0"/>
+        <v>237225.30973584906</v>
+      </c>
+      <c r="I24" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="80">
+        <f t="shared" si="0"/>
+        <v>48855.23</v>
+      </c>
+      <c r="K24" s="81">
+        <f>SUM(C24:J24)</f>
+        <v>358960.11273584905</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="58" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="30">
+      <c r="B28" s="66"/>
+      <c r="C28" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="78">
+        <f>G21</f>
+        <v>1511.73</v>
+      </c>
+      <c r="D29" s="82">
+        <v>0.95</v>
+      </c>
+      <c r="E29" s="78">
+        <f>C29*D29</f>
+        <v>1436.1434999999999</v>
+      </c>
+      <c r="F29" s="83">
+        <f>E29/SUM($E$29:$E$36)</f>
+        <v>1.6812566475529163E-3</v>
+      </c>
+      <c r="G29" s="83"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="78">
+        <f>F21</f>
+        <v>5272.98</v>
+      </c>
+      <c r="D30" s="82">
+        <v>0.82</v>
+      </c>
+      <c r="E30" s="78">
+        <f t="shared" ref="E30:E36" si="1">C30*D30</f>
+        <v>4323.8435999999992</v>
+      </c>
+      <c r="F30" s="83">
+        <f>E30/SUM($E$29:$E$36)</f>
+        <v>5.0618136665863348E-3</v>
+      </c>
+      <c r="G30" s="83"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="78">
+        <f>I21</f>
+        <v>80218.59</v>
+      </c>
+      <c r="D31" s="82">
+        <v>1</v>
+      </c>
+      <c r="E31" s="78">
         <f t="shared" si="1"/>
-        <v>0.75408826300152176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="61" t="s">
+        <v>80218.59</v>
+      </c>
+      <c r="F31" s="83">
+        <f>E31/SUM($E$29:$E$36)</f>
+        <v>9.3909861859084343E-2</v>
+      </c>
+      <c r="G31" s="83"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="C32" s="78"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="78">
+        <f>D21</f>
+        <v>380188.91700000002</v>
+      </c>
+      <c r="D33" s="82">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="E33" s="78">
+        <f t="shared" si="1"/>
+        <v>405661.57443899999</v>
+      </c>
+      <c r="F33" s="83">
+        <f>E33/SUM($E$29:$E$36)</f>
+        <v>0.47489768166088625</v>
+      </c>
+      <c r="G33" s="84">
+        <f>F33/SUM($F$33:$F$36)</f>
+        <v>0.52804717850301197</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="78">
+        <f>H21</f>
+        <v>124747.79218867925</v>
+      </c>
+      <c r="D34" s="82">
+        <v>1</v>
+      </c>
+      <c r="E34" s="78">
+        <f t="shared" si="1"/>
+        <v>124747.79218867925</v>
+      </c>
+      <c r="F34" s="83">
+        <f>E34/SUM($E$29:$E$36)</f>
+        <v>0.1460390656537921</v>
+      </c>
+      <c r="G34" s="84">
+        <f>F34/SUM($F$33:$F$36)</f>
+        <v>0.16238343446950643</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="F29" s="57"/>
-      <c r="G29" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="H29" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="J29" t="e">
+      <c r="C35" s="78">
+        <f>C21</f>
+        <v>4315.34</v>
+      </c>
+      <c r="D35" s="82">
+        <v>0.8</v>
+      </c>
+      <c r="E35" s="78">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="61" t="s">
+        <v>3452.2720000000004</v>
+      </c>
+      <c r="F35" s="83">
+        <f>E35/SUM($E$29:$E$36)</f>
+        <v>4.041486974777104E-3</v>
+      </c>
+      <c r="G35" s="84">
+        <f>F35/SUM($F$33:$F$36)</f>
+        <v>4.4938012468791816E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="60">
-        <v>1.1774</v>
-      </c>
-      <c r="D30" s="60">
-        <v>1.1917</v>
-      </c>
-      <c r="F30" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="60">
-        <f t="shared" si="0"/>
-        <v>49295.383199999997</v>
-      </c>
-      <c r="H30" s="60">
-        <f t="shared" si="0"/>
-        <v>49894.095600000001</v>
-      </c>
-      <c r="J30">
+      <c r="C36" s="80">
+        <f>E21</f>
+        <v>275727.24</v>
+      </c>
+      <c r="D36" s="85">
+        <v>0.85</v>
+      </c>
+      <c r="E36" s="80">
         <f t="shared" si="1"/>
-        <v>0.14392859730911375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="60">
-        <v>7.9725000000000001</v>
-      </c>
-      <c r="D31" s="60">
-        <v>8.2797999999999998</v>
-      </c>
-      <c r="F31" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="60">
-        <f t="shared" si="0"/>
-        <v>333792.63</v>
-      </c>
-      <c r="H31" s="60">
-        <f t="shared" si="0"/>
-        <v>346658.66639999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="60">
-        <v>8.7660999999999998</v>
-      </c>
-      <c r="D32" s="60">
-        <v>8.2355999999999998</v>
-      </c>
-      <c r="F32" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" s="60">
-        <f t="shared" si="0"/>
-        <v>367019.0748</v>
-      </c>
-      <c r="H32" s="60">
-        <f t="shared" si="0"/>
-        <v>344808.10080000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="60">
-        <v>0.8931</v>
-      </c>
-      <c r="D33" s="60">
-        <v>0.85829999999999995</v>
-      </c>
-      <c r="F33" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="60">
-        <f t="shared" si="0"/>
-        <v>37392.310799999999</v>
-      </c>
-      <c r="H33" s="60">
-        <f t="shared" si="0"/>
-        <v>35935.304400000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="60">
-        <v>1E-3</v>
-      </c>
-      <c r="D34" s="60">
-        <v>1E-3</v>
-      </c>
-      <c r="F34" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34" s="60">
-        <f t="shared" si="0"/>
-        <v>41.868000000000002</v>
-      </c>
-      <c r="H34" s="60">
-        <f t="shared" si="0"/>
-        <v>41.868000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="60">
-        <v>0.28220000000000001</v>
-      </c>
-      <c r="D35" s="60">
-        <v>0.28510000000000002</v>
-      </c>
-      <c r="F35" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="60">
-        <f t="shared" si="0"/>
-        <v>11815.149600000001</v>
-      </c>
-      <c r="H35" s="60">
-        <f t="shared" si="0"/>
-        <v>11936.566800000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="60">
-        <v>0.1376</v>
-      </c>
-      <c r="D36" s="60">
-        <v>0.11890000000000001</v>
-      </c>
-      <c r="F36" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="60">
-        <f t="shared" si="0"/>
-        <v>5761.0367999999999</v>
-      </c>
-      <c r="H36" s="60">
-        <f t="shared" si="0"/>
-        <v>4978.1052</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="60">
-        <v>0</v>
-      </c>
-      <c r="D37" s="60">
-        <v>0</v>
-      </c>
-      <c r="F37" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="60">
-        <v>0.1328</v>
-      </c>
-      <c r="D38" s="60">
-        <v>0.1205</v>
-      </c>
-      <c r="F38" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G38" s="60">
-        <f t="shared" si="0"/>
-        <v>5560.0703999999996</v>
-      </c>
-      <c r="H38" s="60">
-        <f t="shared" si="0"/>
-        <v>5045.0940000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="60">
-        <v>0.33950000000000002</v>
-      </c>
-      <c r="D39" s="60">
-        <v>0.33279999999999998</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="60">
-        <f t="shared" si="0"/>
-        <v>14214.186000000002</v>
-      </c>
-      <c r="H39" s="60">
-        <f t="shared" si="0"/>
-        <v>13933.670399999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="60">
-        <v>1340006.6665000001</v>
-      </c>
-      <c r="D40" s="60">
-        <v>1357169.3134999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="60">
-        <v>49760.4545</v>
-      </c>
-      <c r="D41" s="60">
-        <v>51078.935700000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" s="60">
-        <v>106952.2925</v>
-      </c>
-      <c r="D42" s="60">
-        <v>112357.07309999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="60">
-        <v>99472.0141</v>
-      </c>
-      <c r="D43" s="60">
-        <v>101239.53260000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="60">
-        <v>897862.88670000003</v>
-      </c>
-      <c r="D44" s="60">
-        <v>905608.66269999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="61" t="s">
-        <v>150</v>
-      </c>
-      <c r="B45" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="60">
-        <v>324990.19010000001</v>
-      </c>
-      <c r="D45" s="60">
-        <v>329860.17300000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="B46" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="60">
-        <v>572872.69660000002</v>
-      </c>
-      <c r="D46" s="60">
-        <v>575748.48970000003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="B47" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" s="60">
-        <v>185959.01879999999</v>
-      </c>
-      <c r="D47" s="60">
-        <v>186885.10949999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="B48" s="57"/>
-      <c r="C48" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="B49" s="57"/>
-      <c r="C49" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" s="60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" s="60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" s="60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" s="57"/>
-      <c r="C52" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D52" s="60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" s="60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="B54" s="57"/>
-      <c r="C54" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55" s="57"/>
-      <c r="C55" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D55" s="60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="B56" s="57"/>
-      <c r="C56" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D56" s="60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57" s="57"/>
-      <c r="C57" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D57" s="60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="B58" s="57"/>
-      <c r="C58" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" s="60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="B59" s="57"/>
-      <c r="C59" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D59" s="60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" s="57"/>
-      <c r="C60" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D60" s="60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="B61" s="57"/>
-      <c r="C61" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D61" s="60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="B62" s="57"/>
-      <c r="C62" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D62" s="60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="B63" s="57"/>
-      <c r="C63" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" s="60" t="s">
-        <v>133</v>
+        <v>234368.15399999998</v>
+      </c>
+      <c r="F36" s="86">
+        <f>E36/SUM($E$29:$E$36)</f>
+        <v>0.274368833537321</v>
+      </c>
+      <c r="G36" s="87">
+        <f>F36/SUM($F$33:$F$36)</f>
+        <v>0.3050755857806024</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C8:D8 G8:I8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/source_analyses/uk/2012/7_services/7_services_source_analysis.xlsx
+++ b/source_analyses/uk/2012/7_services/7_services_source_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Final demand" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="154">
   <si>
     <r>
       <t>Table 5.09: Final energy consumption in the service sector</t>
@@ -510,9 +510,6 @@
     <t>References</t>
   </si>
   <si>
-    <t>[1] Fleiter et al. (2010) Electricity demand in the European services sector: A detailed bottom-up estimate by sector and by end-use</t>
-  </si>
-  <si>
     <t>Deriving Final demand per application and space heating split</t>
   </si>
   <si>
@@ -580,6 +577,12 @@
   </si>
   <si>
     <t>Electric</t>
+  </si>
+  <si>
+    <t>[1] Fraunhofer_201004_Electricity demand in the European service sector: A detailed bottom-up estimate by sector and by end-use (http://refman.et-model.com/publications/1875)</t>
+  </si>
+  <si>
+    <t>The ECUK study is available on http://refman.et-model.com/publications/1884</t>
   </si>
 </sst>
 </file>
@@ -741,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -833,6 +836,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -864,7 +880,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -963,27 +979,6 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1061,6 +1056,28 @@
     <xf numFmtId="10" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Comma 2 2" xfId="7"/>
@@ -1578,451 +1595,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="16" thickBot="1">
-      <c r="A2" s="4" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="16" thickBot="1">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" thickTop="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+    <row r="5" spans="1:9" ht="16" thickTop="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="9" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B6" s="10">
         <v>0.47802681374230316</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C6" s="10">
         <v>1.3510010957838876</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D6" s="10">
         <v>1.9438635328735057</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E6" s="10">
         <v>0.95961359076745412</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F6" s="10">
         <v>9.1520208575815722</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G6" s="10">
         <v>2.927747354237344</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H6" s="10">
         <v>0.55473370959790302</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I6" s="10">
         <v>17.367006954583971</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="9" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B7" s="10">
         <v>0.39870527736246286</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C7" s="10">
         <v>9.5037361937684181E-2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D7" s="10">
         <v>0.33852637563403037</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E7" s="10">
         <v>0.28748745399858927</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F7" s="10">
         <v>1.2797939766882167</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G7" s="10">
         <v>2.3854725740468696</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H7" s="10">
         <v>0.99660717578100455</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I7" s="10">
         <v>5.7816301954488569</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="10">
-        <v>3.0839120018395065</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1.0555632523087861</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.14122354417674371</v>
-      </c>
-      <c r="E6" s="10">
-        <v>4.493549177708287</v>
-      </c>
-      <c r="F6" s="10">
-        <v>19.698088006402706</v>
-      </c>
-      <c r="G6" s="10">
-        <v>4.4289797892013016</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1.5610698831695857</v>
-      </c>
-      <c r="I6" s="10">
-        <v>34.462385654806916</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1.5017939318552955</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1.0587437216057787</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.45598153470157915</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1.7890459784563022</v>
-      </c>
-      <c r="F7" s="10">
-        <v>14.668630401590233</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1.5983054699777632</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1.0331280683188471</v>
-      </c>
-      <c r="I7" s="10">
-        <v>22.105629106505798</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10">
+        <v>3.0839120018395065</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1.0555632523087861</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.14122354417674371</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4.493549177708287</v>
+      </c>
+      <c r="F8" s="10">
+        <v>19.698088006402706</v>
+      </c>
+      <c r="G8" s="10">
+        <v>4.4289797892013016</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1.5610698831695857</v>
+      </c>
+      <c r="I8" s="10">
+        <v>34.462385654806916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1.5017939318552955</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1.0587437216057787</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.45598153470157915</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1.7890459784563022</v>
+      </c>
+      <c r="F9" s="10">
+        <v>14.668630401590233</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1.5983054699777632</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1.0331280683188471</v>
+      </c>
+      <c r="I9" s="10">
+        <v>22.105629106505798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B10" s="10">
         <v>0.74765666410161025</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C10" s="10">
         <v>0.17675159511327104</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D10" s="10">
         <v>1.4779735311071848E-2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E10" s="10">
         <v>2.3432206839995513</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F10" s="10">
         <v>13.609109017095358</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G10" s="10">
         <v>2.5955878540459612</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H10" s="10">
         <v>0.36058870123310816</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I10" s="10">
         <v>19.847694250899931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="10">
-        <v>6.6578507153540256</v>
-      </c>
-      <c r="C9" s="10">
-        <v>6.6090398353501639E-2</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1.1962441651503528</v>
-      </c>
-      <c r="E9" s="10">
-        <v>4.2315987141070739</v>
-      </c>
-      <c r="F9" s="10">
-        <v>8.4440333960484022</v>
-      </c>
-      <c r="G9" s="10">
-        <v>3.5909512645473871</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1.2313757290922771</v>
-      </c>
-      <c r="I9" s="10">
-        <v>25.418144382653018</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0.459678329146614</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.16827012575552927</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.21286686490133275</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.9196855977507773</v>
-      </c>
-      <c r="F10" s="10">
-        <v>5.5056923120114281</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1.5823661682905141</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0.81878389344302482</v>
-      </c>
-      <c r="I10" s="10">
-        <v>9.6673432912992201</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="10">
-        <v>5.364311617936016</v>
+        <v>6.6578507153540256</v>
       </c>
       <c r="C11" s="10">
-        <v>1.3717380204569074</v>
+        <v>6.6090398353501639E-2</v>
       </c>
       <c r="D11" s="10">
-        <v>3.4303852489360467</v>
+        <v>1.1962441651503528</v>
       </c>
       <c r="E11" s="10">
-        <v>1.8389330431293938</v>
+        <v>4.2315987141070739</v>
       </c>
       <c r="F11" s="10">
-        <v>12.489880099390151</v>
+        <v>8.4440333960484022</v>
       </c>
       <c r="G11" s="10">
-        <v>13.839275367540486</v>
+        <v>3.5909512645473871</v>
       </c>
       <c r="H11" s="10">
-        <v>3.2597744945448017</v>
+        <v>1.2313757290922771</v>
       </c>
       <c r="I11" s="10">
-        <v>41.594297891933806</v>
+        <v>25.418144382653018</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.459678329146614</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.16827012575552927</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.21286686490133275</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.9196855977507773</v>
+      </c>
+      <c r="F12" s="10">
+        <v>5.5056923120114281</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1.5823661682905141</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.81878389344302482</v>
+      </c>
+      <c r="I12" s="10">
+        <v>9.6673432912992201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="10">
+        <v>5.364311617936016</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1.3717380204569074</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3.4303852489360467</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1.8389330431293938</v>
+      </c>
+      <c r="F13" s="10">
+        <v>12.489880099390151</v>
+      </c>
+      <c r="G13" s="10">
+        <v>13.839275367540486</v>
+      </c>
+      <c r="H13" s="10">
+        <v>3.2597744945448017</v>
+      </c>
+      <c r="I13" s="10">
+        <v>41.594297891933806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B14" s="10">
         <v>0.82798768540338352</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C14" s="10">
         <v>0.13113734014933032</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D14" s="10">
         <v>0.5260777732972457</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E14" s="10">
         <v>1.3532802833436102</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F14" s="10">
         <v>3.516698317233089</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G14" s="10">
         <v>1.7206386926852604</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H14" s="10">
         <v>1.67327705735028</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I14" s="10">
         <v>9.7490971494621999</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="12" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B15" s="10">
         <v>1.771212110925072</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C15" s="10">
         <v>0.40443723295683293</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D15" s="10">
         <v>0.62675315122526276</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E15" s="10">
         <v>1.0833621107494134</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F15" s="10">
         <v>12.835420825367297</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G15" s="10">
         <v>4.9285489210923865</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H15" s="10">
         <v>3.0114090223211702</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I15" s="10">
         <v>24.661143374637437</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16" thickBot="1">
-      <c r="A14" s="13" t="s">
+    <row r="16" spans="1:9" ht="16" thickBot="1">
+      <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B16" s="14">
         <v>21.291135147666289</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C16" s="14">
         <v>5.8787701444215097</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D16" s="14">
         <v>8.8867019262071718</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E16" s="14">
         <v>19.299776634010453</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F16" s="14">
         <v>101.19936720940844</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G16" s="14">
         <v>39.597873455665273</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H16" s="14">
         <v>14.500747734852002</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I16" s="14">
         <v>210.65437225223116</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16" thickTop="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:10" ht="16" thickTop="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="21" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="21"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2033,8 +2031,8 @@
       <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="22" t="s">
-        <v>25</v>
+      <c r="A21" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -2046,9 +2044,7 @@
       <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="23" t="s">
-        <v>26</v>
-      </c>
+      <c r="A22" s="21"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -2059,8 +2055,8 @@
       <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="23" t="s">
-        <v>27</v>
+      <c r="A23" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -2071,80 +2067,106 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="25" spans="1:10" s="25" customFormat="1">
-      <c r="A25" s="24" t="s">
+    <row r="24" spans="1:10">
+      <c r="A24" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="27" spans="1:10" s="25" customFormat="1">
+      <c r="A27" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="26">
-        <f t="shared" ref="B25:H25" si="0">B14/$I$14</f>
+      <c r="B27" s="26">
+        <f t="shared" ref="B27:H27" si="0">B16/$I$16</f>
         <v>0.10107141342489169</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C27" s="26">
         <f t="shared" si="0"/>
         <v>2.7907183134003262E-2</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D27" s="26">
         <f t="shared" si="0"/>
         <v>4.2186173641658407E-2</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E27" s="26">
         <f t="shared" si="0"/>
         <v>9.1618210567694675E-2</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F27" s="26">
         <f t="shared" si="0"/>
         <v>0.48040477929523051</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G27" s="26">
         <f t="shared" si="0"/>
         <v>0.18797555935963189</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H27" s="26">
         <f t="shared" si="0"/>
         <v>6.8836680576889464E-2</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="25">
+      <c r="I27" s="26"/>
+      <c r="J27" s="25">
         <v>673684.97840000002</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="25" customFormat="1">
-      <c r="A26" s="24" t="s">
+    <row r="28" spans="1:10" s="25" customFormat="1">
+      <c r="A28" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="26">
-        <f>B25*$J$25</f>
+      <c r="B28" s="26">
+        <f>B27*$J$27</f>
         <v>68090.292970005627</v>
       </c>
-      <c r="C26" s="26">
-        <f t="shared" ref="C26:H26" si="1">C25*$J$25</f>
+      <c r="C28" s="26">
+        <f t="shared" ref="C28:H28" si="1">C27*$J$27</f>
         <v>18800.650066835831</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D28" s="27">
         <f t="shared" si="1"/>
         <v>28420.191478559296</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E28" s="26">
         <f t="shared" si="1"/>
         <v>61721.812207344039</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F28" s="27">
         <f t="shared" si="1"/>
         <v>323641.48336276412</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G28" s="88">
         <f t="shared" si="1"/>
         <v>126636.31064692154</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H28" s="26">
         <f t="shared" si="1"/>
         <v>46374.237667569483</v>
       </c>
-      <c r="I26" s="26"/>
+      <c r="I28" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="Title!A1" display="Return to Title page"/>
+    <hyperlink ref="A4" location="Title!A1" display="Return to Title page"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2186,106 +2208,106 @@
     </row>
     <row r="4" spans="1:87" s="31" customFormat="1" ht="13" thickTop="1">
       <c r="A4" s="28"/>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="28"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
       <c r="J4" s="28"/>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
       <c r="R4" s="28"/>
-      <c r="S4" s="50" t="s">
+      <c r="S4" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
       <c r="AB4" s="28"/>
-      <c r="AC4" s="50" t="s">
+      <c r="AC4" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
       <c r="AI4" s="29"/>
-      <c r="AJ4" s="50" t="s">
+      <c r="AJ4" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="81"/>
+      <c r="AO4" s="81"/>
+      <c r="AP4" s="81"/>
+      <c r="AQ4" s="81"/>
       <c r="AR4" s="29"/>
       <c r="AS4" s="29" t="s">
         <v>52</v>
       </c>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="50" t="s">
+      <c r="AU4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="AV4" s="50"/>
-      <c r="AW4" s="50"/>
-      <c r="AX4" s="50"/>
-      <c r="AY4" s="50"/>
-      <c r="AZ4" s="50"/>
-      <c r="BA4" s="50"/>
-      <c r="BB4" s="50"/>
-      <c r="BC4" s="50"/>
-      <c r="BD4" s="50"/>
-      <c r="BE4" s="50"/>
-      <c r="BF4" s="50"/>
-      <c r="BG4" s="50"/>
-      <c r="BH4" s="50"/>
-      <c r="BI4" s="50"/>
-      <c r="BJ4" s="50"/>
-      <c r="BK4" s="50"/>
-      <c r="BL4" s="50"/>
-      <c r="BM4" s="50"/>
-      <c r="BN4" s="50"/>
-      <c r="BO4" s="50"/>
-      <c r="BP4" s="50"/>
-      <c r="BQ4" s="50"/>
-      <c r="BR4" s="50"/>
-      <c r="BS4" s="50"/>
-      <c r="BT4" s="50"/>
-      <c r="BU4" s="50"/>
+      <c r="AV4" s="81"/>
+      <c r="AW4" s="81"/>
+      <c r="AX4" s="81"/>
+      <c r="AY4" s="81"/>
+      <c r="AZ4" s="81"/>
+      <c r="BA4" s="81"/>
+      <c r="BB4" s="81"/>
+      <c r="BC4" s="81"/>
+      <c r="BD4" s="81"/>
+      <c r="BE4" s="81"/>
+      <c r="BF4" s="81"/>
+      <c r="BG4" s="81"/>
+      <c r="BH4" s="81"/>
+      <c r="BI4" s="81"/>
+      <c r="BJ4" s="81"/>
+      <c r="BK4" s="81"/>
+      <c r="BL4" s="81"/>
+      <c r="BM4" s="81"/>
+      <c r="BN4" s="81"/>
+      <c r="BO4" s="81"/>
+      <c r="BP4" s="81"/>
+      <c r="BQ4" s="81"/>
+      <c r="BR4" s="81"/>
+      <c r="BS4" s="81"/>
+      <c r="BT4" s="81"/>
+      <c r="BU4" s="81"/>
       <c r="BV4" s="28"/>
-      <c r="BW4" s="50" t="s">
+      <c r="BW4" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="BX4" s="50"/>
-      <c r="BY4" s="50"/>
-      <c r="BZ4" s="50"/>
-      <c r="CA4" s="50"/>
-      <c r="CB4" s="50"/>
-      <c r="CC4" s="50"/>
-      <c r="CD4" s="50"/>
-      <c r="CE4" s="50"/>
+      <c r="BX4" s="81"/>
+      <c r="BY4" s="81"/>
+      <c r="BZ4" s="81"/>
+      <c r="CA4" s="81"/>
+      <c r="CB4" s="81"/>
+      <c r="CC4" s="81"/>
+      <c r="CD4" s="81"/>
+      <c r="CE4" s="81"/>
       <c r="CF4" s="30"/>
       <c r="CG4" s="30" t="s">
         <v>33</v>
@@ -2414,38 +2436,38 @@
         <v>86</v>
       </c>
       <c r="AT5" s="33"/>
-      <c r="AU5" s="51" t="s">
+      <c r="AU5" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52"/>
+      <c r="AV5" s="83"/>
+      <c r="AW5" s="83"/>
+      <c r="AX5" s="83"/>
       <c r="AY5" s="35"/>
-      <c r="AZ5" s="53" t="s">
+      <c r="AZ5" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="BA5" s="54"/>
-      <c r="BB5" s="54"/>
-      <c r="BC5" s="54"/>
+      <c r="BA5" s="85"/>
+      <c r="BB5" s="85"/>
+      <c r="BC5" s="85"/>
       <c r="BD5" s="36"/>
-      <c r="BE5" s="51" t="s">
+      <c r="BE5" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="BF5" s="52"/>
-      <c r="BG5" s="52"/>
-      <c r="BH5" s="52"/>
-      <c r="BI5" s="52"/>
-      <c r="BJ5" s="52"/>
+      <c r="BF5" s="83"/>
+      <c r="BG5" s="83"/>
+      <c r="BH5" s="83"/>
+      <c r="BI5" s="83"/>
+      <c r="BJ5" s="83"/>
       <c r="BK5" s="35"/>
-      <c r="BL5" s="51" t="s">
+      <c r="BL5" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="BM5" s="52"/>
-      <c r="BN5" s="52"/>
-      <c r="BO5" s="52"/>
-      <c r="BP5" s="52"/>
-      <c r="BQ5" s="52"/>
-      <c r="BR5" s="52"/>
+      <c r="BM5" s="83"/>
+      <c r="BN5" s="83"/>
+      <c r="BO5" s="83"/>
+      <c r="BP5" s="83"/>
+      <c r="BQ5" s="83"/>
+      <c r="BR5" s="83"/>
       <c r="BS5" s="35"/>
       <c r="BT5" s="35"/>
       <c r="BU5" s="34" t="s">
@@ -3231,97 +3253,97 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="20">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="50"/>
     </row>
     <row r="3" spans="2:14" ht="20">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="58"/>
+      <c r="C4" s="51"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-    </row>
-    <row r="6" spans="2:14" s="61" customFormat="1" ht="45">
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60" t="s">
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+    </row>
+    <row r="6" spans="2:14" s="54" customFormat="1" ht="45">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="60" t="s">
+      <c r="L6" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="N6" s="60" t="s">
+      <c r="N6" s="53" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="2:14" s="61" customFormat="1">
-      <c r="B7" s="62" t="s">
+    <row r="7" spans="2:14" s="54" customFormat="1">
+      <c r="B7" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="55">
         <v>2.65</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="56">
         <v>1</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" t="s">
@@ -3330,26 +3352,26 @@
       <c r="C8">
         <v>0.71</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="58">
         <f>C8/C$7</f>
         <v>0.26792452830188679</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="K8" s="65" t="str">
+      <c r="K8" s="58" t="str">
         <f>IF(ISNUMBER(F8),F8*$D8,"")</f>
         <v/>
       </c>
-      <c r="L8" s="65" t="str">
+      <c r="L8" s="58" t="str">
         <f t="shared" ref="L8:N21" si="0">IF(ISNUMBER(G8),G8*$D8,"")</f>
         <v/>
       </c>
-      <c r="M8" s="65">
+      <c r="M8" s="58">
         <f t="shared" si="0"/>
         <v>0.26792452830188679</v>
       </c>
-      <c r="N8" s="65" t="str">
+      <c r="N8" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3361,26 +3383,26 @@
       <c r="C9">
         <v>0.44</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="58">
         <f t="shared" ref="D9:D21" si="1">C9/C$7</f>
         <v>0.16603773584905662</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="K9" s="65" t="str">
+      <c r="K9" s="58" t="str">
         <f t="shared" ref="K9:K21" si="2">IF(ISNUMBER(F9),F9*$D9,"")</f>
         <v/>
       </c>
-      <c r="L9" s="65" t="str">
+      <c r="L9" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M9" s="65" t="str">
+      <c r="M9" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N9" s="65">
+      <c r="N9" s="58">
         <f t="shared" si="0"/>
         <v>0.16603773584905662</v>
       </c>
@@ -3392,26 +3414,26 @@
       <c r="C10">
         <v>0.54</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="58">
         <f t="shared" si="1"/>
         <v>0.20377358490566039</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="K10" s="65">
+      <c r="K10" s="58">
         <f t="shared" si="2"/>
         <v>0.20377358490566039</v>
       </c>
-      <c r="L10" s="65" t="str">
+      <c r="L10" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M10" s="65" t="str">
+      <c r="M10" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N10" s="65" t="str">
+      <c r="N10" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3423,26 +3445,26 @@
       <c r="C11">
         <v>0.08</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="58">
         <f t="shared" si="1"/>
         <v>3.0188679245283019E-2</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="K11" s="65" t="str">
+      <c r="K11" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L11" s="65">
+      <c r="L11" s="58">
         <f t="shared" si="0"/>
         <v>3.0188679245283019E-2</v>
       </c>
-      <c r="M11" s="65" t="str">
+      <c r="M11" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N11" s="65" t="str">
+      <c r="N11" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3454,26 +3476,26 @@
       <c r="C12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="58">
         <f t="shared" si="1"/>
         <v>0.10566037735849058</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="K12" s="65" t="str">
+      <c r="K12" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L12" s="65" t="str">
+      <c r="L12" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M12" s="65" t="str">
+      <c r="M12" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N12" s="65">
+      <c r="N12" s="58">
         <f t="shared" si="0"/>
         <v>0.10566037735849058</v>
       </c>
@@ -3485,26 +3507,26 @@
       <c r="C13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D13" s="65">
+      <c r="D13" s="58">
         <f t="shared" si="1"/>
         <v>2.6415094339622646E-2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="K13" s="65">
+      <c r="K13" s="58">
         <f t="shared" si="2"/>
         <v>2.6415094339622646E-2</v>
       </c>
-      <c r="L13" s="65" t="str">
+      <c r="L13" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M13" s="65" t="str">
+      <c r="M13" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N13" s="65" t="str">
+      <c r="N13" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3516,26 +3538,26 @@
       <c r="C14">
         <v>0.09</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="58">
         <f t="shared" si="1"/>
         <v>3.3962264150943396E-2</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="K14" s="65" t="str">
+      <c r="K14" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L14" s="65" t="str">
+      <c r="L14" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M14" s="65">
+      <c r="M14" s="58">
         <f t="shared" si="0"/>
         <v>3.3962264150943396E-2</v>
       </c>
-      <c r="N14" s="65" t="str">
+      <c r="N14" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3547,26 +3569,26 @@
       <c r="C15">
         <v>0.12</v>
       </c>
-      <c r="D15" s="65">
+      <c r="D15" s="58">
         <f t="shared" si="1"/>
         <v>4.5283018867924525E-2</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="K15" s="65" t="str">
+      <c r="K15" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L15" s="65" t="str">
+      <c r="L15" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M15" s="65" t="str">
+      <c r="M15" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N15" s="65">
+      <c r="N15" s="58">
         <f t="shared" si="0"/>
         <v>4.5283018867924525E-2</v>
       </c>
@@ -3578,26 +3600,26 @@
       <c r="C16">
         <v>0.12</v>
       </c>
-      <c r="D16" s="65">
+      <c r="D16" s="58">
         <f t="shared" si="1"/>
         <v>4.5283018867924525E-2</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="K16" s="65" t="str">
+      <c r="K16" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L16" s="65" t="str">
+      <c r="L16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M16" s="65" t="str">
+      <c r="M16" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N16" s="65">
+      <c r="N16" s="58">
         <f t="shared" si="0"/>
         <v>4.5283018867924525E-2</v>
       </c>
@@ -3609,26 +3631,26 @@
       <c r="C17">
         <v>0.08</v>
       </c>
-      <c r="D17" s="65">
+      <c r="D17" s="58">
         <f t="shared" si="1"/>
         <v>3.0188679245283019E-2</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="K17" s="65" t="str">
+      <c r="K17" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L17" s="65" t="str">
+      <c r="L17" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M17" s="65" t="str">
+      <c r="M17" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N17" s="65">
+      <c r="N17" s="58">
         <f t="shared" si="0"/>
         <v>3.0188679245283019E-2</v>
       </c>
@@ -3640,26 +3662,26 @@
       <c r="C18">
         <v>0.08</v>
       </c>
-      <c r="D18" s="65">
+      <c r="D18" s="58">
         <f t="shared" si="1"/>
         <v>3.0188679245283019E-2</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="K18" s="65" t="str">
+      <c r="K18" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L18" s="65" t="str">
+      <c r="L18" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M18" s="65" t="str">
+      <c r="M18" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N18" s="65">
+      <c r="N18" s="58">
         <f t="shared" si="0"/>
         <v>3.0188679245283019E-2</v>
       </c>
@@ -3671,26 +3693,26 @@
       <c r="C19">
         <v>0.03</v>
       </c>
-      <c r="D19" s="65">
+      <c r="D19" s="58">
         <f t="shared" si="1"/>
         <v>1.1320754716981131E-2</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="K19" s="65" t="str">
+      <c r="K19" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L19" s="65" t="str">
+      <c r="L19" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M19" s="65" t="str">
+      <c r="M19" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N19" s="65">
+      <c r="N19" s="58">
         <f t="shared" si="0"/>
         <v>1.1320754716981131E-2</v>
       </c>
@@ -3702,26 +3724,26 @@
       <c r="C20">
         <v>0.01</v>
       </c>
-      <c r="D20" s="65">
+      <c r="D20" s="58">
         <f t="shared" si="1"/>
         <v>3.7735849056603774E-3</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="K20" s="65" t="str">
+      <c r="K20" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L20" s="65" t="str">
+      <c r="L20" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M20" s="65" t="str">
+      <c r="M20" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N20" s="65">
+      <c r="N20" s="58">
         <f t="shared" si="0"/>
         <v>3.7735849056603774E-3</v>
       </c>
@@ -3733,55 +3755,55 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" s="65">
+      <c r="D21" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="K21" s="65">
+      <c r="K21" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L21" s="65" t="str">
+      <c r="L21" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M21" s="65" t="str">
+      <c r="M21" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N21" s="65"/>
+      <c r="N21" s="58"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67">
+      <c r="C22" s="59"/>
+      <c r="D22" s="60">
         <f>SUM(D8:D21)</f>
         <v>1</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="67">
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="60">
         <f>SUM(K8:K21)</f>
         <v>0.23018867924528302</v>
       </c>
-      <c r="L22" s="67">
+      <c r="L22" s="60">
         <f>SUM(L8:L21)</f>
         <v>3.0188679245283019E-2</v>
       </c>
-      <c r="M22" s="67">
+      <c r="M22" s="60">
         <f>SUM(M8:M21)</f>
         <v>0.30188679245283018</v>
       </c>
-      <c r="N22" s="67">
+      <c r="N22" s="60">
         <f>SUM(N8:N20)</f>
         <v>0.43773584905660379</v>
       </c>
@@ -3790,39 +3812,39 @@
       <c r="B24" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="68"/>
+      <c r="D24" s="61"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="D25" s="68"/>
+      <c r="D25" s="61"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="D26" s="68"/>
+      <c r="D26" s="61"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="58"/>
+      <c r="C27" s="51"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
+      <c r="B28" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3849,262 +3871,262 @@
   <cols>
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="11" width="13.33203125" style="70" customWidth="1"/>
+    <col min="3" max="11" width="13.33203125" style="63" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="20">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="51" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="58" t="s">
+    <row r="6" spans="2:10">
+      <c r="B6" s="59"/>
+      <c r="C6" s="64" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="66"/>
-      <c r="C6" s="71" t="s">
+      <c r="D6" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="E6" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="F6" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="G6" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="H6" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="I6" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="J6" s="64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="30">
+      <c r="B7" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="J6" s="71" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="30">
-      <c r="B7" s="72" t="s">
+      <c r="C7" s="66">
+        <v>4315.34</v>
+      </c>
+      <c r="D7" s="66">
+        <v>422432.13</v>
+      </c>
+      <c r="E7" s="66">
+        <v>306363.59999999998</v>
+      </c>
+      <c r="F7" s="66">
+        <v>5272.98</v>
+      </c>
+      <c r="G7" s="66">
+        <v>1511.73</v>
+      </c>
+      <c r="H7" s="66">
+        <v>541937.13</v>
+      </c>
+      <c r="I7" s="66">
+        <v>80218.59</v>
+      </c>
+      <c r="J7" s="66">
+        <v>48855.23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="73">
-        <v>4315.34</v>
-      </c>
-      <c r="D7" s="73">
-        <v>422432.13</v>
-      </c>
-      <c r="E7" s="73">
-        <v>306363.59999999998</v>
-      </c>
-      <c r="F7" s="73">
-        <v>5272.98</v>
-      </c>
-      <c r="G7" s="73">
-        <v>1511.73</v>
-      </c>
-      <c r="H7" s="73">
-        <v>541937.13</v>
-      </c>
-      <c r="I7" s="73">
-        <v>80218.59</v>
-      </c>
-      <c r="J7" s="73">
-        <v>48855.23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="58" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="66"/>
-      <c r="C12" s="71" t="s">
+      <c r="B12" s="59"/>
+      <c r="C12" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="E12" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="F12" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="G12" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="71" t="s">
+      <c r="H12" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="I12" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="I12" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="74">
+        <v>140</v>
+      </c>
+      <c r="C13" s="67">
         <v>1</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="67">
         <v>0.9</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="67">
         <v>0.9</v>
       </c>
-      <c r="F13" s="74">
+      <c r="F13" s="67">
         <v>1</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="67">
         <v>1</v>
       </c>
-      <c r="H13" s="74">
+      <c r="H13" s="67">
         <f>[2]Electricity!K22</f>
         <v>0.23018867924528302</v>
       </c>
-      <c r="I13" s="74">
+      <c r="I13" s="67">
         <v>1</v>
       </c>
-      <c r="J13" s="74"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74">
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67">
         <f>[2]Electricity!L22</f>
         <v>3.0188679245283019E-2</v>
       </c>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74">
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67">
         <f>[2]Electricity!M22</f>
         <v>0.30188679245283018</v>
       </c>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76">
+      <c r="C16" s="69"/>
+      <c r="D16" s="69">
         <v>0.1</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="69">
         <v>0.1</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76">
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69">
         <f>[2]Electricity!N22</f>
         <v>0.43773584905660379</v>
       </c>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76">
+      <c r="I16" s="69"/>
+      <c r="J16" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="58" t="s">
-        <v>142</v>
+      <c r="B19" s="51" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="66"/>
-      <c r="C20" s="71" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="E20" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="71" t="s">
+      <c r="F20" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="71" t="s">
+      <c r="G20" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="71" t="s">
+      <c r="H20" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="H20" s="71" t="s">
+      <c r="I20" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="I20" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="J20" s="71" t="s">
+      <c r="J20" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="77" t="s">
+      <c r="K20" s="70" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="78">
+        <v>140</v>
+      </c>
+      <c r="C21" s="71">
         <f t="shared" ref="C21:J24" si="0">C13*C$7</f>
         <v>4315.34</v>
       </c>
-      <c r="D21" s="78">
+      <c r="D21" s="71">
         <f t="shared" si="0"/>
         <v>380188.91700000002</v>
       </c>
-      <c r="E21" s="78">
+      <c r="E21" s="71">
         <f t="shared" si="0"/>
         <v>275727.24</v>
       </c>
-      <c r="F21" s="78">
+      <c r="F21" s="71">
         <f t="shared" si="0"/>
         <v>5272.98</v>
       </c>
-      <c r="G21" s="78">
+      <c r="G21" s="71">
         <f t="shared" si="0"/>
         <v>1511.73</v>
       </c>
-      <c r="H21" s="78">
+      <c r="H21" s="71">
         <f>H13*H$7</f>
         <v>124747.79218867925</v>
       </c>
-      <c r="I21" s="78">
+      <c r="I21" s="71">
         <f t="shared" si="0"/>
         <v>80218.59</v>
       </c>
-      <c r="J21" s="78">
+      <c r="J21" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="79">
+      <c r="K21" s="72">
         <f>SUM(C21:J21)</f>
         <v>871982.58918867912</v>
       </c>
@@ -4113,39 +4135,39 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="78">
+      <c r="C22" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="78">
+      <c r="D22" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="78">
+      <c r="E22" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="78">
+      <c r="F22" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="78">
+      <c r="G22" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="78">
+      <c r="H22" s="71">
         <f t="shared" si="0"/>
         <v>16360.366188679245</v>
       </c>
-      <c r="I22" s="78">
+      <c r="I22" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="78">
+      <c r="J22" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="79">
+      <c r="K22" s="72">
         <f>SUM(C22:J22)</f>
         <v>16360.366188679245</v>
       </c>
@@ -4154,269 +4176,269 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="78">
+      <c r="C23" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="78">
+      <c r="D23" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="78">
+      <c r="E23" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="78">
+      <c r="F23" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="78">
+      <c r="G23" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="78">
+      <c r="H23" s="71">
         <f t="shared" si="0"/>
         <v>163603.66188679246</v>
       </c>
-      <c r="I23" s="78">
+      <c r="I23" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="78">
+      <c r="J23" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="79">
+      <c r="K23" s="72">
         <f>SUM(C23:J23)</f>
         <v>163603.66188679246</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="80">
+      <c r="C24" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="73">
         <f t="shared" si="0"/>
         <v>42243.213000000003</v>
       </c>
-      <c r="E24" s="80">
+      <c r="E24" s="73">
         <f t="shared" si="0"/>
         <v>30636.36</v>
       </c>
-      <c r="F24" s="80">
+      <c r="F24" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="80">
+      <c r="G24" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24" s="80">
+      <c r="H24" s="73">
         <f t="shared" si="0"/>
         <v>237225.30973584906</v>
       </c>
-      <c r="I24" s="80">
+      <c r="I24" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="80">
+      <c r="J24" s="73">
         <f t="shared" si="0"/>
         <v>48855.23</v>
       </c>
-      <c r="K24" s="81">
+      <c r="K24" s="74">
         <f>SUM(C24:J24)</f>
         <v>358960.11273584905</v>
       </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="30">
+      <c r="B28" s="59"/>
+      <c r="C28" s="64" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" ht="30">
-      <c r="B28" s="66"/>
-      <c r="C28" s="71" t="s">
+      <c r="D28" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="E28" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="71" t="s">
+      <c r="F28" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="71" t="s">
+      <c r="G28" s="64" t="s">
         <v>147</v>
-      </c>
-      <c r="G28" s="71" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="78">
+        <v>148</v>
+      </c>
+      <c r="C29" s="71">
         <f>G21</f>
         <v>1511.73</v>
       </c>
-      <c r="D29" s="82">
+      <c r="D29" s="75">
         <v>0.95</v>
       </c>
-      <c r="E29" s="78">
+      <c r="E29" s="71">
         <f>C29*D29</f>
         <v>1436.1434999999999</v>
       </c>
-      <c r="F29" s="83">
+      <c r="F29" s="76">
         <f>E29/SUM($E$29:$E$36)</f>
         <v>1.6812566475529163E-3</v>
       </c>
-      <c r="G29" s="83"/>
+      <c r="G29" s="76"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="78">
+        <v>149</v>
+      </c>
+      <c r="C30" s="71">
         <f>F21</f>
         <v>5272.98</v>
       </c>
-      <c r="D30" s="82">
+      <c r="D30" s="75">
         <v>0.82</v>
       </c>
-      <c r="E30" s="78">
+      <c r="E30" s="71">
         <f t="shared" ref="E30:E36" si="1">C30*D30</f>
         <v>4323.8435999999992</v>
       </c>
-      <c r="F30" s="83">
+      <c r="F30" s="76">
         <f>E30/SUM($E$29:$E$36)</f>
         <v>5.0618136665863348E-3</v>
       </c>
-      <c r="G30" s="83"/>
+      <c r="G30" s="76"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="78">
+        <v>150</v>
+      </c>
+      <c r="C31" s="71">
         <f>I21</f>
         <v>80218.59</v>
       </c>
-      <c r="D31" s="82">
+      <c r="D31" s="75">
         <v>1</v>
       </c>
-      <c r="E31" s="78">
+      <c r="E31" s="71">
         <f t="shared" si="1"/>
         <v>80218.59</v>
       </c>
-      <c r="F31" s="83">
+      <c r="F31" s="76">
         <f>E31/SUM($E$29:$E$36)</f>
         <v>9.3909861859084343E-2</v>
       </c>
-      <c r="G31" s="83"/>
+      <c r="G31" s="76"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="C32" s="78"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C33" s="78">
+        <v>132</v>
+      </c>
+      <c r="C33" s="71">
         <f>D21</f>
         <v>380188.91700000002</v>
       </c>
-      <c r="D33" s="82">
+      <c r="D33" s="75">
         <v>1.0669999999999999</v>
       </c>
-      <c r="E33" s="78">
+      <c r="E33" s="71">
         <f t="shared" si="1"/>
         <v>405661.57443899999</v>
       </c>
-      <c r="F33" s="83">
+      <c r="F33" s="76">
         <f>E33/SUM($E$29:$E$36)</f>
         <v>0.47489768166088625</v>
       </c>
-      <c r="G33" s="84">
+      <c r="G33" s="77">
         <f>F33/SUM($F$33:$F$36)</f>
         <v>0.52804717850301197</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="78">
+        <v>151</v>
+      </c>
+      <c r="C34" s="71">
         <f>H21</f>
         <v>124747.79218867925</v>
       </c>
-      <c r="D34" s="82">
+      <c r="D34" s="75">
         <v>1</v>
       </c>
-      <c r="E34" s="78">
+      <c r="E34" s="71">
         <f t="shared" si="1"/>
         <v>124747.79218867925</v>
       </c>
-      <c r="F34" s="83">
+      <c r="F34" s="76">
         <f>E34/SUM($E$29:$E$36)</f>
         <v>0.1460390656537921</v>
       </c>
-      <c r="G34" s="84">
+      <c r="G34" s="77">
         <f>F34/SUM($F$33:$F$36)</f>
         <v>0.16238343446950643</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="78">
+        <v>131</v>
+      </c>
+      <c r="C35" s="71">
         <f>C21</f>
         <v>4315.34</v>
       </c>
-      <c r="D35" s="82">
+      <c r="D35" s="75">
         <v>0.8</v>
       </c>
-      <c r="E35" s="78">
+      <c r="E35" s="71">
         <f t="shared" si="1"/>
         <v>3452.2720000000004</v>
       </c>
-      <c r="F35" s="83">
+      <c r="F35" s="76">
         <f>E35/SUM($E$29:$E$36)</f>
         <v>4.041486974777104E-3</v>
       </c>
-      <c r="G35" s="84">
+      <c r="G35" s="77">
         <f>F35/SUM($F$33:$F$36)</f>
         <v>4.4938012468791816E-3</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="80">
+      <c r="B36" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="73">
         <f>E21</f>
         <v>275727.24</v>
       </c>
-      <c r="D36" s="85">
+      <c r="D36" s="78">
         <v>0.85</v>
       </c>
-      <c r="E36" s="80">
+      <c r="E36" s="73">
         <f t="shared" si="1"/>
         <v>234368.15399999998</v>
       </c>
-      <c r="F36" s="86">
+      <c r="F36" s="79">
         <f>E36/SUM($E$29:$E$36)</f>
         <v>0.274368833537321</v>
       </c>
-      <c r="G36" s="87">
+      <c r="G36" s="80">
         <f>F36/SUM($F$33:$F$36)</f>
         <v>0.3050755857806024</v>
       </c>
